--- a/files/penalty.xlsx
+++ b/files/penalty.xlsx
@@ -4,28 +4,29 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" tabRatio="846" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" tabRatio="846"/>
   </bookViews>
   <sheets>
-    <sheet name="HB-3-3, Shop No. 01" sheetId="2" r:id="rId1"/>
-    <sheet name="HB-3-3, Shop No. 02" sheetId="6" r:id="rId2"/>
-    <sheet name="HB-3-3, Shop No. 04" sheetId="5" r:id="rId3"/>
-    <sheet name="HB-3-3, Flat No. 302" sheetId="7" r:id="rId4"/>
-    <sheet name="HB-3-4, Shop No. 03" sheetId="8" r:id="rId5"/>
-    <sheet name="HB-3-4, Shop No. 04" sheetId="9" r:id="rId6"/>
-    <sheet name="HB-3-4, Flat No. 104" sheetId="11" r:id="rId7"/>
-    <sheet name="HC-5, Flat No. 001" sheetId="10" r:id="rId8"/>
-    <sheet name="HC-5, Flat No. 003" sheetId="12" r:id="rId9"/>
-    <sheet name="HC-5, Flat No. 103" sheetId="13" r:id="rId10"/>
-    <sheet name="HC-6, Flat No. 202" sheetId="14" r:id="rId11"/>
-    <sheet name="HC-6, Flat No. 301" sheetId="15" r:id="rId12"/>
+    <sheet name="Total" sheetId="16" r:id="rId1"/>
+    <sheet name="HB-3-3, Shop No. 01" sheetId="2" r:id="rId2"/>
+    <sheet name="HB-3-3, Shop No. 02" sheetId="6" r:id="rId3"/>
+    <sheet name="HB-3-3, Shop No. 04" sheetId="5" r:id="rId4"/>
+    <sheet name="HB-3-3, Flat No. 302" sheetId="7" r:id="rId5"/>
+    <sheet name="HB-3-4, Shop No. 03" sheetId="8" r:id="rId6"/>
+    <sheet name="HB-3-4, Shop No. 04" sheetId="9" r:id="rId7"/>
+    <sheet name="HB-3-4, Flat No. 104" sheetId="11" r:id="rId8"/>
+    <sheet name="HC-5, Flat No. 001" sheetId="10" r:id="rId9"/>
+    <sheet name="HC-5, Flat No. 003" sheetId="12" r:id="rId10"/>
+    <sheet name="HC-5, Flat No. 103" sheetId="13" r:id="rId11"/>
+    <sheet name="HC-6, Flat No. 202" sheetId="14" r:id="rId12"/>
+    <sheet name="HC-6, Flat No. 301" sheetId="15" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>Chanden Sen - HB-3/3, Shop No. 02</t>
   </si>
@@ -62,12 +63,21 @@
   <si>
     <t>V.S. Datar - HC-6, Flat No. 301</t>
   </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,16 +109,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -116,17 +145,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,19 +477,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
+    <row r="1" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -453,18 +501,239 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7">
+        <f>'HB-3-3, Shop No. 01'!E2</f>
+        <v>27300</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <f>'HB-3-3, Shop No. 02'!E2</f>
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7">
+        <f>'HB-3-3, Shop No. 04'!E2</f>
+        <v>82350</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <f>'HB-3-3, Flat No. 302'!E2</f>
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7">
+        <f>'HB-3-4, Shop No. 03'!E2</f>
+        <v>24500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="7">
+        <f>'HB-3-4, Shop No. 04'!E2</f>
+        <v>24500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="7">
+        <f>'HB-3-4, Flat No. 104'!E2</f>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="7">
+        <f>'HC-5, Flat No. 001'!E2</f>
+        <v>83250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="7">
+        <f>'HC-5, Flat No. 003'!E2</f>
+        <v>83250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="7">
+        <f>'HC-5, Flat No. 103'!E2</f>
+        <v>71750</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <f>'HC-6, Flat No. 202'!E2</f>
+        <v>202950</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="7">
+        <f>'HC-6, Flat No. 301'!E2</f>
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="9">
+        <f>SUM(C3:C15)</f>
+        <v>615900</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AU121"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+    </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C2" s="1">
-        <f>SUM(B4:B24)</f>
-        <v>15750</v>
+        <f>SUM(B4:B48)</f>
+        <v>31500</v>
       </c>
       <c r="D2" s="1">
-        <f>SUM(C24:W24)</f>
-        <v>11550</v>
+        <f>SUM(C48:AU48)</f>
+        <v>51750</v>
       </c>
       <c r="E2" s="1">
         <f>C2+D2</f>
-        <v>27300</v>
+        <v>83250</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -485,10 +754,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>44652</v>
+        <v>43922</v>
       </c>
       <c r="B4" s="2">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="C4">
         <v>50</v>
@@ -496,10 +765,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>44682</v>
+        <v>43952</v>
       </c>
       <c r="B5" s="2">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="C5">
         <v>100</v>
@@ -510,10 +779,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>44713</v>
+        <v>43983</v>
       </c>
       <c r="B6" s="2">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="C6">
         <v>150</v>
@@ -527,10 +796,10 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>44743</v>
+        <v>44013</v>
       </c>
       <c r="B7" s="2">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="C7">
         <v>200</v>
@@ -547,10 +816,10 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>44774</v>
+        <v>44044</v>
       </c>
       <c r="B8" s="2">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="C8">
         <v>250</v>
@@ -570,10 +839,10 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>44805</v>
+        <v>44075</v>
       </c>
       <c r="B9" s="2">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="C9">
         <v>300</v>
@@ -596,10 +865,10 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>44835</v>
+        <v>44105</v>
       </c>
       <c r="B10" s="2">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="C10">
         <v>350</v>
@@ -625,10 +894,10 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>44866</v>
+        <v>44136</v>
       </c>
       <c r="B11" s="2">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="C11">
         <v>400</v>
@@ -657,10 +926,10 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>44896</v>
+        <v>44166</v>
       </c>
       <c r="B12" s="2">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="C12">
         <v>450</v>
@@ -692,10 +961,10 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>44927</v>
+        <v>44197</v>
       </c>
       <c r="B13" s="2">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="C13">
         <v>500</v>
@@ -730,10 +999,10 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>44958</v>
+        <v>44228</v>
       </c>
       <c r="B14" s="2">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="C14">
         <v>550</v>
@@ -771,10 +1040,10 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>44986</v>
+        <v>44256</v>
       </c>
       <c r="B15" s="2">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="C15">
         <v>600</v>
@@ -815,10 +1084,10 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>45017</v>
+        <v>44287</v>
       </c>
       <c r="B16" s="2">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="C16">
         <v>650</v>
@@ -860,12 +1129,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>45047</v>
+        <v>44317</v>
       </c>
       <c r="B17" s="2">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="C17">
         <v>700</v>
@@ -910,12 +1179,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>45078</v>
+        <v>44348</v>
       </c>
       <c r="B18" s="2">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="C18">
         <v>750</v>
@@ -963,12 +1232,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>45108</v>
+        <v>44378</v>
       </c>
       <c r="B19" s="2">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="C19">
         <v>800</v>
@@ -1019,12 +1288,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>45139</v>
+        <v>44409</v>
       </c>
       <c r="B20" s="2">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="C20">
         <v>850</v>
@@ -1078,12 +1347,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>45170</v>
+        <v>44440</v>
       </c>
       <c r="B21" s="2">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="C21">
         <v>900</v>
@@ -1140,12 +1409,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>45200</v>
+        <v>44470</v>
       </c>
       <c r="B22" s="2">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="C22">
         <v>950</v>
@@ -1205,12 +1474,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>45231</v>
+        <v>44501</v>
       </c>
       <c r="B23" s="2">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="C23">
         <v>1000</v>
@@ -1273,12 +1542,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>45261</v>
+        <v>44531</v>
       </c>
       <c r="B24" s="2">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="C24">
         <v>1050</v>
@@ -1343,19 +1612,2842 @@
       <c r="W24">
         <v>50</v>
       </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>44562</v>
+      </c>
+      <c r="B25" s="2">
+        <v>700</v>
+      </c>
+      <c r="C25">
+        <v>1100</v>
+      </c>
+      <c r="D25">
+        <v>1050</v>
+      </c>
+      <c r="E25">
+        <v>1000</v>
+      </c>
+      <c r="F25">
+        <v>950</v>
+      </c>
+      <c r="G25">
+        <v>900</v>
+      </c>
+      <c r="H25">
+        <v>850</v>
+      </c>
+      <c r="I25">
+        <v>800</v>
+      </c>
+      <c r="J25">
+        <v>750</v>
+      </c>
+      <c r="K25">
+        <v>700</v>
+      </c>
+      <c r="L25">
+        <v>650</v>
+      </c>
+      <c r="M25">
+        <v>600</v>
+      </c>
+      <c r="N25">
+        <v>550</v>
+      </c>
+      <c r="O25">
+        <v>500</v>
+      </c>
+      <c r="P25">
+        <v>450</v>
+      </c>
+      <c r="Q25">
+        <v>400</v>
+      </c>
+      <c r="R25">
+        <v>350</v>
+      </c>
+      <c r="S25">
+        <v>300</v>
+      </c>
+      <c r="T25">
+        <v>250</v>
+      </c>
+      <c r="U25">
+        <v>200</v>
+      </c>
+      <c r="V25">
+        <v>150</v>
+      </c>
+      <c r="W25">
+        <v>100</v>
+      </c>
+      <c r="X25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>44593</v>
+      </c>
+      <c r="B26" s="2">
+        <v>700</v>
+      </c>
+      <c r="C26">
+        <v>1150</v>
+      </c>
+      <c r="D26">
+        <v>1100</v>
+      </c>
+      <c r="E26">
+        <v>1050</v>
+      </c>
+      <c r="F26">
+        <v>1000</v>
+      </c>
+      <c r="G26">
+        <v>950</v>
+      </c>
+      <c r="H26">
+        <v>900</v>
+      </c>
+      <c r="I26">
+        <v>850</v>
+      </c>
+      <c r="J26">
+        <v>800</v>
+      </c>
+      <c r="K26">
+        <v>750</v>
+      </c>
+      <c r="L26">
+        <v>700</v>
+      </c>
+      <c r="M26">
+        <v>650</v>
+      </c>
+      <c r="N26">
+        <v>600</v>
+      </c>
+      <c r="O26">
+        <v>550</v>
+      </c>
+      <c r="P26">
+        <v>500</v>
+      </c>
+      <c r="Q26">
+        <v>450</v>
+      </c>
+      <c r="R26">
+        <v>400</v>
+      </c>
+      <c r="S26">
+        <v>350</v>
+      </c>
+      <c r="T26">
+        <v>300</v>
+      </c>
+      <c r="U26">
+        <v>250</v>
+      </c>
+      <c r="V26">
+        <v>200</v>
+      </c>
+      <c r="W26">
+        <v>150</v>
+      </c>
+      <c r="X26">
+        <v>100</v>
+      </c>
+      <c r="Y26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>44621</v>
+      </c>
+      <c r="B27" s="2">
+        <v>700</v>
+      </c>
+      <c r="C27">
+        <v>1200</v>
+      </c>
+      <c r="D27">
+        <v>1150</v>
+      </c>
+      <c r="E27">
+        <v>1100</v>
+      </c>
+      <c r="F27">
+        <v>1050</v>
+      </c>
+      <c r="G27">
+        <v>1000</v>
+      </c>
+      <c r="H27">
+        <v>950</v>
+      </c>
+      <c r="I27">
+        <v>900</v>
+      </c>
+      <c r="J27">
+        <v>850</v>
+      </c>
+      <c r="K27">
+        <v>800</v>
+      </c>
+      <c r="L27">
+        <v>750</v>
+      </c>
+      <c r="M27">
+        <v>700</v>
+      </c>
+      <c r="N27">
+        <v>650</v>
+      </c>
+      <c r="O27">
+        <v>600</v>
+      </c>
+      <c r="P27">
+        <v>550</v>
+      </c>
+      <c r="Q27">
+        <v>500</v>
+      </c>
+      <c r="R27">
+        <v>450</v>
+      </c>
+      <c r="S27">
+        <v>400</v>
+      </c>
+      <c r="T27">
+        <v>350</v>
+      </c>
+      <c r="U27">
+        <v>300</v>
+      </c>
+      <c r="V27">
+        <v>250</v>
+      </c>
+      <c r="W27">
+        <v>200</v>
+      </c>
+      <c r="X27">
+        <v>150</v>
+      </c>
+      <c r="Y27">
+        <v>100</v>
+      </c>
+      <c r="Z27">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>44652</v>
+      </c>
+      <c r="B28" s="2">
+        <v>700</v>
+      </c>
+      <c r="C28">
+        <v>1250</v>
+      </c>
+      <c r="D28">
+        <v>1200</v>
+      </c>
+      <c r="E28">
+        <v>1150</v>
+      </c>
+      <c r="F28">
+        <v>1100</v>
+      </c>
+      <c r="G28">
+        <v>1050</v>
+      </c>
+      <c r="H28">
+        <v>1000</v>
+      </c>
+      <c r="I28">
+        <v>950</v>
+      </c>
+      <c r="J28">
+        <v>900</v>
+      </c>
+      <c r="K28">
+        <v>850</v>
+      </c>
+      <c r="L28">
+        <v>800</v>
+      </c>
+      <c r="M28">
+        <v>750</v>
+      </c>
+      <c r="N28">
+        <v>700</v>
+      </c>
+      <c r="O28">
+        <v>650</v>
+      </c>
+      <c r="P28">
+        <v>600</v>
+      </c>
+      <c r="Q28">
+        <v>550</v>
+      </c>
+      <c r="R28">
+        <v>500</v>
+      </c>
+      <c r="S28">
+        <v>450</v>
+      </c>
+      <c r="T28">
+        <v>400</v>
+      </c>
+      <c r="U28">
+        <v>350</v>
+      </c>
+      <c r="V28">
+        <v>300</v>
+      </c>
+      <c r="W28">
+        <v>250</v>
+      </c>
+      <c r="X28">
+        <v>200</v>
+      </c>
+      <c r="Y28">
+        <v>150</v>
+      </c>
+      <c r="Z28">
+        <v>100</v>
+      </c>
+      <c r="AA28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>44682</v>
+      </c>
+      <c r="B29" s="2">
+        <v>700</v>
+      </c>
+      <c r="C29">
+        <v>1300</v>
+      </c>
+      <c r="D29">
+        <v>1250</v>
+      </c>
+      <c r="E29">
+        <v>1200</v>
+      </c>
+      <c r="F29">
+        <v>1150</v>
+      </c>
+      <c r="G29">
+        <v>1100</v>
+      </c>
+      <c r="H29">
+        <v>1050</v>
+      </c>
+      <c r="I29">
+        <v>1000</v>
+      </c>
+      <c r="J29">
+        <v>950</v>
+      </c>
+      <c r="K29">
+        <v>900</v>
+      </c>
+      <c r="L29">
+        <v>850</v>
+      </c>
+      <c r="M29">
+        <v>800</v>
+      </c>
+      <c r="N29">
+        <v>750</v>
+      </c>
+      <c r="O29">
+        <v>700</v>
+      </c>
+      <c r="P29">
+        <v>650</v>
+      </c>
+      <c r="Q29">
+        <v>600</v>
+      </c>
+      <c r="R29">
+        <v>550</v>
+      </c>
+      <c r="S29">
+        <v>500</v>
+      </c>
+      <c r="T29">
+        <v>450</v>
+      </c>
+      <c r="U29">
+        <v>400</v>
+      </c>
+      <c r="V29">
+        <v>350</v>
+      </c>
+      <c r="W29">
+        <v>300</v>
+      </c>
+      <c r="X29">
+        <v>250</v>
+      </c>
+      <c r="Y29">
+        <v>200</v>
+      </c>
+      <c r="Z29">
+        <v>150</v>
+      </c>
+      <c r="AA29">
+        <v>100</v>
+      </c>
+      <c r="AB29">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>44713</v>
+      </c>
+      <c r="B30" s="2">
+        <v>700</v>
+      </c>
+      <c r="C30">
+        <v>1350</v>
+      </c>
+      <c r="D30">
+        <v>1300</v>
+      </c>
+      <c r="E30">
+        <v>1250</v>
+      </c>
+      <c r="F30">
+        <v>1200</v>
+      </c>
+      <c r="G30">
+        <v>1150</v>
+      </c>
+      <c r="H30">
+        <v>1100</v>
+      </c>
+      <c r="I30">
+        <v>1050</v>
+      </c>
+      <c r="J30">
+        <v>1000</v>
+      </c>
+      <c r="K30">
+        <v>950</v>
+      </c>
+      <c r="L30">
+        <v>900</v>
+      </c>
+      <c r="M30">
+        <v>850</v>
+      </c>
+      <c r="N30">
+        <v>800</v>
+      </c>
+      <c r="O30">
+        <v>750</v>
+      </c>
+      <c r="P30">
+        <v>700</v>
+      </c>
+      <c r="Q30">
+        <v>650</v>
+      </c>
+      <c r="R30">
+        <v>600</v>
+      </c>
+      <c r="S30">
+        <v>550</v>
+      </c>
+      <c r="T30">
+        <v>500</v>
+      </c>
+      <c r="U30">
+        <v>450</v>
+      </c>
+      <c r="V30">
+        <v>400</v>
+      </c>
+      <c r="W30">
+        <v>350</v>
+      </c>
+      <c r="X30">
+        <v>300</v>
+      </c>
+      <c r="Y30">
+        <v>250</v>
+      </c>
+      <c r="Z30">
+        <v>200</v>
+      </c>
+      <c r="AA30">
+        <v>150</v>
+      </c>
+      <c r="AB30">
+        <v>100</v>
+      </c>
+      <c r="AC30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>44743</v>
+      </c>
+      <c r="B31" s="2">
+        <v>700</v>
+      </c>
+      <c r="C31">
+        <v>1400</v>
+      </c>
+      <c r="D31">
+        <v>1350</v>
+      </c>
+      <c r="E31">
+        <v>1300</v>
+      </c>
+      <c r="F31">
+        <v>1250</v>
+      </c>
+      <c r="G31">
+        <v>1200</v>
+      </c>
+      <c r="H31">
+        <v>1150</v>
+      </c>
+      <c r="I31">
+        <v>1100</v>
+      </c>
+      <c r="J31">
+        <v>1050</v>
+      </c>
+      <c r="K31">
+        <v>1000</v>
+      </c>
+      <c r="L31">
+        <v>950</v>
+      </c>
+      <c r="M31">
+        <v>900</v>
+      </c>
+      <c r="N31">
+        <v>850</v>
+      </c>
+      <c r="O31">
+        <v>800</v>
+      </c>
+      <c r="P31">
+        <v>750</v>
+      </c>
+      <c r="Q31">
+        <v>700</v>
+      </c>
+      <c r="R31">
+        <v>650</v>
+      </c>
+      <c r="S31">
+        <v>600</v>
+      </c>
+      <c r="T31">
+        <v>550</v>
+      </c>
+      <c r="U31">
+        <v>500</v>
+      </c>
+      <c r="V31">
+        <v>450</v>
+      </c>
+      <c r="W31">
+        <v>400</v>
+      </c>
+      <c r="X31">
+        <v>350</v>
+      </c>
+      <c r="Y31">
+        <v>300</v>
+      </c>
+      <c r="Z31">
+        <v>250</v>
+      </c>
+      <c r="AA31">
+        <v>200</v>
+      </c>
+      <c r="AB31">
+        <v>150</v>
+      </c>
+      <c r="AC31">
+        <v>100</v>
+      </c>
+      <c r="AD31">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>44774</v>
+      </c>
+      <c r="B32" s="2">
+        <v>700</v>
+      </c>
+      <c r="C32">
+        <v>1450</v>
+      </c>
+      <c r="D32">
+        <v>1400</v>
+      </c>
+      <c r="E32">
+        <v>1350</v>
+      </c>
+      <c r="F32">
+        <v>1300</v>
+      </c>
+      <c r="G32">
+        <v>1250</v>
+      </c>
+      <c r="H32">
+        <v>1200</v>
+      </c>
+      <c r="I32">
+        <v>1150</v>
+      </c>
+      <c r="J32">
+        <v>1100</v>
+      </c>
+      <c r="K32">
+        <v>1050</v>
+      </c>
+      <c r="L32">
+        <v>1000</v>
+      </c>
+      <c r="M32">
+        <v>950</v>
+      </c>
+      <c r="N32">
+        <v>900</v>
+      </c>
+      <c r="O32">
+        <v>850</v>
+      </c>
+      <c r="P32">
+        <v>800</v>
+      </c>
+      <c r="Q32">
+        <v>750</v>
+      </c>
+      <c r="R32">
+        <v>700</v>
+      </c>
+      <c r="S32">
+        <v>650</v>
+      </c>
+      <c r="T32">
+        <v>600</v>
+      </c>
+      <c r="U32">
+        <v>550</v>
+      </c>
+      <c r="V32">
+        <v>500</v>
+      </c>
+      <c r="W32">
+        <v>450</v>
+      </c>
+      <c r="X32">
+        <v>400</v>
+      </c>
+      <c r="Y32">
+        <v>350</v>
+      </c>
+      <c r="Z32">
+        <v>300</v>
+      </c>
+      <c r="AA32">
+        <v>250</v>
+      </c>
+      <c r="AB32">
+        <v>200</v>
+      </c>
+      <c r="AC32">
+        <v>150</v>
+      </c>
+      <c r="AD32">
+        <v>100</v>
+      </c>
+      <c r="AE32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>44805</v>
+      </c>
+      <c r="B33" s="2">
+        <v>700</v>
+      </c>
+      <c r="C33">
+        <v>1500</v>
+      </c>
+      <c r="D33">
+        <v>1450</v>
+      </c>
+      <c r="E33">
+        <v>1400</v>
+      </c>
+      <c r="F33">
+        <v>1350</v>
+      </c>
+      <c r="G33">
+        <v>1300</v>
+      </c>
+      <c r="H33">
+        <v>1250</v>
+      </c>
+      <c r="I33">
+        <v>1200</v>
+      </c>
+      <c r="J33">
+        <v>1150</v>
+      </c>
+      <c r="K33">
+        <v>1100</v>
+      </c>
+      <c r="L33">
+        <v>1050</v>
+      </c>
+      <c r="M33">
+        <v>1000</v>
+      </c>
+      <c r="N33">
+        <v>950</v>
+      </c>
+      <c r="O33">
+        <v>900</v>
+      </c>
+      <c r="P33">
+        <v>850</v>
+      </c>
+      <c r="Q33">
+        <v>800</v>
+      </c>
+      <c r="R33">
+        <v>750</v>
+      </c>
+      <c r="S33">
+        <v>700</v>
+      </c>
+      <c r="T33">
+        <v>650</v>
+      </c>
+      <c r="U33">
+        <v>600</v>
+      </c>
+      <c r="V33">
+        <v>550</v>
+      </c>
+      <c r="W33">
+        <v>500</v>
+      </c>
+      <c r="X33">
+        <v>450</v>
+      </c>
+      <c r="Y33">
+        <v>400</v>
+      </c>
+      <c r="Z33">
+        <v>350</v>
+      </c>
+      <c r="AA33">
+        <v>300</v>
+      </c>
+      <c r="AB33">
+        <v>250</v>
+      </c>
+      <c r="AC33">
+        <v>200</v>
+      </c>
+      <c r="AD33">
+        <v>150</v>
+      </c>
+      <c r="AE33">
+        <v>100</v>
+      </c>
+      <c r="AF33">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>44835</v>
+      </c>
+      <c r="B34" s="2">
+        <v>700</v>
+      </c>
+      <c r="C34">
+        <v>1550</v>
+      </c>
+      <c r="D34">
+        <v>1500</v>
+      </c>
+      <c r="E34">
+        <v>1450</v>
+      </c>
+      <c r="F34">
+        <v>1400</v>
+      </c>
+      <c r="G34">
+        <v>1350</v>
+      </c>
+      <c r="H34">
+        <v>1300</v>
+      </c>
+      <c r="I34">
+        <v>1250</v>
+      </c>
+      <c r="J34">
+        <v>1200</v>
+      </c>
+      <c r="K34">
+        <v>1150</v>
+      </c>
+      <c r="L34">
+        <v>1100</v>
+      </c>
+      <c r="M34">
+        <v>1050</v>
+      </c>
+      <c r="N34">
+        <v>1000</v>
+      </c>
+      <c r="O34">
+        <v>950</v>
+      </c>
+      <c r="P34">
+        <v>900</v>
+      </c>
+      <c r="Q34">
+        <v>850</v>
+      </c>
+      <c r="R34">
+        <v>800</v>
+      </c>
+      <c r="S34">
+        <v>750</v>
+      </c>
+      <c r="T34">
+        <v>700</v>
+      </c>
+      <c r="U34">
+        <v>650</v>
+      </c>
+      <c r="V34">
+        <v>600</v>
+      </c>
+      <c r="W34">
+        <v>550</v>
+      </c>
+      <c r="X34">
+        <v>500</v>
+      </c>
+      <c r="Y34">
+        <v>450</v>
+      </c>
+      <c r="Z34">
+        <v>400</v>
+      </c>
+      <c r="AA34">
+        <v>350</v>
+      </c>
+      <c r="AB34">
+        <v>300</v>
+      </c>
+      <c r="AC34">
+        <v>250</v>
+      </c>
+      <c r="AD34">
+        <v>200</v>
+      </c>
+      <c r="AE34">
+        <v>150</v>
+      </c>
+      <c r="AF34">
+        <v>100</v>
+      </c>
+      <c r="AG34">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>44866</v>
+      </c>
+      <c r="B35" s="2">
+        <v>700</v>
+      </c>
+      <c r="C35">
+        <v>1600</v>
+      </c>
+      <c r="D35">
+        <v>1550</v>
+      </c>
+      <c r="E35">
+        <v>1500</v>
+      </c>
+      <c r="F35">
+        <v>1450</v>
+      </c>
+      <c r="G35">
+        <v>1400</v>
+      </c>
+      <c r="H35">
+        <v>1350</v>
+      </c>
+      <c r="I35">
+        <v>1300</v>
+      </c>
+      <c r="J35">
+        <v>1250</v>
+      </c>
+      <c r="K35">
+        <v>1200</v>
+      </c>
+      <c r="L35">
+        <v>1150</v>
+      </c>
+      <c r="M35">
+        <v>1100</v>
+      </c>
+      <c r="N35">
+        <v>1050</v>
+      </c>
+      <c r="O35">
+        <v>1000</v>
+      </c>
+      <c r="P35">
+        <v>950</v>
+      </c>
+      <c r="Q35">
+        <v>900</v>
+      </c>
+      <c r="R35">
+        <v>850</v>
+      </c>
+      <c r="S35">
+        <v>800</v>
+      </c>
+      <c r="T35">
+        <v>750</v>
+      </c>
+      <c r="U35">
+        <v>700</v>
+      </c>
+      <c r="V35">
+        <v>650</v>
+      </c>
+      <c r="W35">
+        <v>600</v>
+      </c>
+      <c r="X35">
+        <v>550</v>
+      </c>
+      <c r="Y35">
+        <v>500</v>
+      </c>
+      <c r="Z35">
+        <v>450</v>
+      </c>
+      <c r="AA35">
+        <v>400</v>
+      </c>
+      <c r="AB35">
+        <v>350</v>
+      </c>
+      <c r="AC35">
+        <v>300</v>
+      </c>
+      <c r="AD35">
+        <v>250</v>
+      </c>
+      <c r="AE35">
+        <v>200</v>
+      </c>
+      <c r="AF35">
+        <v>150</v>
+      </c>
+      <c r="AG35">
+        <v>100</v>
+      </c>
+      <c r="AH35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>44896</v>
+      </c>
+      <c r="B36" s="2">
+        <v>700</v>
+      </c>
+      <c r="C36">
+        <v>1650</v>
+      </c>
+      <c r="D36">
+        <v>1600</v>
+      </c>
+      <c r="E36">
+        <v>1550</v>
+      </c>
+      <c r="F36">
+        <v>1500</v>
+      </c>
+      <c r="G36">
+        <v>1450</v>
+      </c>
+      <c r="H36">
+        <v>1400</v>
+      </c>
+      <c r="I36">
+        <v>1350</v>
+      </c>
+      <c r="J36">
+        <v>1300</v>
+      </c>
+      <c r="K36">
+        <v>1250</v>
+      </c>
+      <c r="L36">
+        <v>1200</v>
+      </c>
+      <c r="M36">
+        <v>1150</v>
+      </c>
+      <c r="N36">
+        <v>1100</v>
+      </c>
+      <c r="O36">
+        <v>1050</v>
+      </c>
+      <c r="P36">
+        <v>1000</v>
+      </c>
+      <c r="Q36">
+        <v>950</v>
+      </c>
+      <c r="R36">
+        <v>900</v>
+      </c>
+      <c r="S36">
+        <v>850</v>
+      </c>
+      <c r="T36">
+        <v>800</v>
+      </c>
+      <c r="U36">
+        <v>750</v>
+      </c>
+      <c r="V36">
+        <v>700</v>
+      </c>
+      <c r="W36">
+        <v>650</v>
+      </c>
+      <c r="X36">
+        <v>600</v>
+      </c>
+      <c r="Y36">
+        <v>550</v>
+      </c>
+      <c r="Z36">
+        <v>500</v>
+      </c>
+      <c r="AA36">
+        <v>450</v>
+      </c>
+      <c r="AB36">
+        <v>400</v>
+      </c>
+      <c r="AC36">
+        <v>350</v>
+      </c>
+      <c r="AD36">
+        <v>300</v>
+      </c>
+      <c r="AE36">
+        <v>250</v>
+      </c>
+      <c r="AF36">
+        <v>200</v>
+      </c>
+      <c r="AG36">
+        <v>150</v>
+      </c>
+      <c r="AH36">
+        <v>100</v>
+      </c>
+      <c r="AI36">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>44927</v>
+      </c>
+      <c r="B37" s="2">
+        <v>700</v>
+      </c>
+      <c r="C37">
+        <v>1700</v>
+      </c>
+      <c r="D37">
+        <v>1650</v>
+      </c>
+      <c r="E37">
+        <v>1600</v>
+      </c>
+      <c r="F37">
+        <v>1550</v>
+      </c>
+      <c r="G37">
+        <v>1500</v>
+      </c>
+      <c r="H37">
+        <v>1450</v>
+      </c>
+      <c r="I37">
+        <v>1400</v>
+      </c>
+      <c r="J37">
+        <v>1350</v>
+      </c>
+      <c r="K37">
+        <v>1300</v>
+      </c>
+      <c r="L37">
+        <v>1250</v>
+      </c>
+      <c r="M37">
+        <v>1200</v>
+      </c>
+      <c r="N37">
+        <v>1150</v>
+      </c>
+      <c r="O37">
+        <v>1100</v>
+      </c>
+      <c r="P37">
+        <v>1050</v>
+      </c>
+      <c r="Q37">
+        <v>1000</v>
+      </c>
+      <c r="R37">
+        <v>950</v>
+      </c>
+      <c r="S37">
+        <v>900</v>
+      </c>
+      <c r="T37">
+        <v>850</v>
+      </c>
+      <c r="U37">
+        <v>800</v>
+      </c>
+      <c r="V37">
+        <v>750</v>
+      </c>
+      <c r="W37">
+        <v>700</v>
+      </c>
+      <c r="X37">
+        <v>650</v>
+      </c>
+      <c r="Y37">
+        <v>600</v>
+      </c>
+      <c r="Z37">
+        <v>550</v>
+      </c>
+      <c r="AA37">
+        <v>500</v>
+      </c>
+      <c r="AB37">
+        <v>450</v>
+      </c>
+      <c r="AC37">
+        <v>400</v>
+      </c>
+      <c r="AD37">
+        <v>350</v>
+      </c>
+      <c r="AE37">
+        <v>300</v>
+      </c>
+      <c r="AF37">
+        <v>250</v>
+      </c>
+      <c r="AG37">
+        <v>200</v>
+      </c>
+      <c r="AH37">
+        <v>150</v>
+      </c>
+      <c r="AI37">
+        <v>100</v>
+      </c>
+      <c r="AJ37">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>44958</v>
+      </c>
+      <c r="B38" s="2">
+        <v>700</v>
+      </c>
+      <c r="C38">
+        <v>1750</v>
+      </c>
+      <c r="D38">
+        <v>1700</v>
+      </c>
+      <c r="E38">
+        <v>1650</v>
+      </c>
+      <c r="F38">
+        <v>1600</v>
+      </c>
+      <c r="G38">
+        <v>1550</v>
+      </c>
+      <c r="H38">
+        <v>1500</v>
+      </c>
+      <c r="I38">
+        <v>1450</v>
+      </c>
+      <c r="J38">
+        <v>1400</v>
+      </c>
+      <c r="K38">
+        <v>1350</v>
+      </c>
+      <c r="L38">
+        <v>1300</v>
+      </c>
+      <c r="M38">
+        <v>1250</v>
+      </c>
+      <c r="N38">
+        <v>1200</v>
+      </c>
+      <c r="O38">
+        <v>1150</v>
+      </c>
+      <c r="P38">
+        <v>1100</v>
+      </c>
+      <c r="Q38">
+        <v>1050</v>
+      </c>
+      <c r="R38">
+        <v>1000</v>
+      </c>
+      <c r="S38">
+        <v>950</v>
+      </c>
+      <c r="T38">
+        <v>900</v>
+      </c>
+      <c r="U38">
+        <v>850</v>
+      </c>
+      <c r="V38">
+        <v>800</v>
+      </c>
+      <c r="W38">
+        <v>750</v>
+      </c>
+      <c r="X38">
+        <v>700</v>
+      </c>
+      <c r="Y38">
+        <v>650</v>
+      </c>
+      <c r="Z38">
+        <v>600</v>
+      </c>
+      <c r="AA38">
+        <v>550</v>
+      </c>
+      <c r="AB38">
+        <v>500</v>
+      </c>
+      <c r="AC38">
+        <v>450</v>
+      </c>
+      <c r="AD38">
+        <v>400</v>
+      </c>
+      <c r="AE38">
+        <v>350</v>
+      </c>
+      <c r="AF38">
+        <v>300</v>
+      </c>
+      <c r="AG38">
+        <v>250</v>
+      </c>
+      <c r="AH38">
+        <v>200</v>
+      </c>
+      <c r="AI38">
+        <v>150</v>
+      </c>
+      <c r="AJ38">
+        <v>100</v>
+      </c>
+      <c r="AK38">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>44986</v>
+      </c>
+      <c r="B39" s="2">
+        <v>700</v>
+      </c>
+      <c r="C39">
+        <v>1800</v>
+      </c>
+      <c r="D39">
+        <v>1750</v>
+      </c>
+      <c r="E39">
+        <v>1700</v>
+      </c>
+      <c r="F39">
+        <v>1650</v>
+      </c>
+      <c r="G39">
+        <v>1600</v>
+      </c>
+      <c r="H39">
+        <v>1550</v>
+      </c>
+      <c r="I39">
+        <v>1500</v>
+      </c>
+      <c r="J39">
+        <v>1450</v>
+      </c>
+      <c r="K39">
+        <v>1400</v>
+      </c>
+      <c r="L39">
+        <v>1350</v>
+      </c>
+      <c r="M39">
+        <v>1300</v>
+      </c>
+      <c r="N39">
+        <v>1250</v>
+      </c>
+      <c r="O39">
+        <v>1200</v>
+      </c>
+      <c r="P39">
+        <v>1150</v>
+      </c>
+      <c r="Q39">
+        <v>1100</v>
+      </c>
+      <c r="R39">
+        <v>1050</v>
+      </c>
+      <c r="S39">
+        <v>1000</v>
+      </c>
+      <c r="T39">
+        <v>950</v>
+      </c>
+      <c r="U39">
+        <v>900</v>
+      </c>
+      <c r="V39">
+        <v>850</v>
+      </c>
+      <c r="W39">
+        <v>800</v>
+      </c>
+      <c r="X39">
+        <v>750</v>
+      </c>
+      <c r="Y39">
+        <v>700</v>
+      </c>
+      <c r="Z39">
+        <v>650</v>
+      </c>
+      <c r="AA39">
+        <v>600</v>
+      </c>
+      <c r="AB39">
+        <v>550</v>
+      </c>
+      <c r="AC39">
+        <v>500</v>
+      </c>
+      <c r="AD39">
+        <v>450</v>
+      </c>
+      <c r="AE39">
+        <v>400</v>
+      </c>
+      <c r="AF39">
+        <v>350</v>
+      </c>
+      <c r="AG39">
+        <v>300</v>
+      </c>
+      <c r="AH39">
+        <v>250</v>
+      </c>
+      <c r="AI39">
+        <v>200</v>
+      </c>
+      <c r="AJ39">
+        <v>150</v>
+      </c>
+      <c r="AK39">
+        <v>100</v>
+      </c>
+      <c r="AL39">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>45017</v>
+      </c>
+      <c r="B40" s="2">
+        <v>700</v>
+      </c>
+      <c r="C40">
+        <v>1850</v>
+      </c>
+      <c r="D40">
+        <v>1800</v>
+      </c>
+      <c r="E40">
+        <v>1750</v>
+      </c>
+      <c r="F40">
+        <v>1700</v>
+      </c>
+      <c r="G40">
+        <v>1650</v>
+      </c>
+      <c r="H40">
+        <v>1600</v>
+      </c>
+      <c r="I40">
+        <v>1550</v>
+      </c>
+      <c r="J40">
+        <v>1500</v>
+      </c>
+      <c r="K40">
+        <v>1450</v>
+      </c>
+      <c r="L40">
+        <v>1400</v>
+      </c>
+      <c r="M40">
+        <v>1350</v>
+      </c>
+      <c r="N40">
+        <v>1300</v>
+      </c>
+      <c r="O40">
+        <v>1250</v>
+      </c>
+      <c r="P40">
+        <v>1200</v>
+      </c>
+      <c r="Q40">
+        <v>1150</v>
+      </c>
+      <c r="R40">
+        <v>1100</v>
+      </c>
+      <c r="S40">
+        <v>1050</v>
+      </c>
+      <c r="T40">
+        <v>1000</v>
+      </c>
+      <c r="U40">
+        <v>950</v>
+      </c>
+      <c r="V40">
+        <v>900</v>
+      </c>
+      <c r="W40">
+        <v>850</v>
+      </c>
+      <c r="X40">
+        <v>800</v>
+      </c>
+      <c r="Y40">
+        <v>750</v>
+      </c>
+      <c r="Z40">
+        <v>700</v>
+      </c>
+      <c r="AA40">
+        <v>650</v>
+      </c>
+      <c r="AB40">
+        <v>600</v>
+      </c>
+      <c r="AC40">
+        <v>550</v>
+      </c>
+      <c r="AD40">
+        <v>500</v>
+      </c>
+      <c r="AE40">
+        <v>450</v>
+      </c>
+      <c r="AF40">
+        <v>400</v>
+      </c>
+      <c r="AG40">
+        <v>350</v>
+      </c>
+      <c r="AH40">
+        <v>300</v>
+      </c>
+      <c r="AI40">
+        <v>250</v>
+      </c>
+      <c r="AJ40">
+        <v>200</v>
+      </c>
+      <c r="AK40">
+        <v>150</v>
+      </c>
+      <c r="AL40">
+        <v>100</v>
+      </c>
+      <c r="AM40">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>45047</v>
+      </c>
+      <c r="B41" s="2">
+        <v>700</v>
+      </c>
+      <c r="C41">
+        <v>1900</v>
+      </c>
+      <c r="D41">
+        <v>1850</v>
+      </c>
+      <c r="E41">
+        <v>1800</v>
+      </c>
+      <c r="F41">
+        <v>1750</v>
+      </c>
+      <c r="G41">
+        <v>1700</v>
+      </c>
+      <c r="H41">
+        <v>1650</v>
+      </c>
+      <c r="I41">
+        <v>1600</v>
+      </c>
+      <c r="J41">
+        <v>1550</v>
+      </c>
+      <c r="K41">
+        <v>1500</v>
+      </c>
+      <c r="L41">
+        <v>1450</v>
+      </c>
+      <c r="M41">
+        <v>1400</v>
+      </c>
+      <c r="N41">
+        <v>1350</v>
+      </c>
+      <c r="O41">
+        <v>1300</v>
+      </c>
+      <c r="P41">
+        <v>1250</v>
+      </c>
+      <c r="Q41">
+        <v>1200</v>
+      </c>
+      <c r="R41">
+        <v>1150</v>
+      </c>
+      <c r="S41">
+        <v>1100</v>
+      </c>
+      <c r="T41">
+        <v>1050</v>
+      </c>
+      <c r="U41">
+        <v>1000</v>
+      </c>
+      <c r="V41">
+        <v>950</v>
+      </c>
+      <c r="W41">
+        <v>900</v>
+      </c>
+      <c r="X41">
+        <v>850</v>
+      </c>
+      <c r="Y41">
+        <v>800</v>
+      </c>
+      <c r="Z41">
+        <v>750</v>
+      </c>
+      <c r="AA41">
+        <v>700</v>
+      </c>
+      <c r="AB41">
+        <v>650</v>
+      </c>
+      <c r="AC41">
+        <v>600</v>
+      </c>
+      <c r="AD41">
+        <v>550</v>
+      </c>
+      <c r="AE41">
+        <v>500</v>
+      </c>
+      <c r="AF41">
+        <v>450</v>
+      </c>
+      <c r="AG41">
+        <v>400</v>
+      </c>
+      <c r="AH41">
+        <v>350</v>
+      </c>
+      <c r="AI41">
+        <v>300</v>
+      </c>
+      <c r="AJ41">
+        <v>250</v>
+      </c>
+      <c r="AK41">
+        <v>200</v>
+      </c>
+      <c r="AL41">
+        <v>150</v>
+      </c>
+      <c r="AM41">
+        <v>100</v>
+      </c>
+      <c r="AN41">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>45078</v>
+      </c>
+      <c r="B42" s="2">
+        <v>700</v>
+      </c>
+      <c r="C42">
+        <v>1950</v>
+      </c>
+      <c r="D42">
+        <v>1900</v>
+      </c>
+      <c r="E42">
+        <v>1850</v>
+      </c>
+      <c r="F42">
+        <v>1800</v>
+      </c>
+      <c r="G42">
+        <v>1750</v>
+      </c>
+      <c r="H42">
+        <v>1700</v>
+      </c>
+      <c r="I42">
+        <v>1650</v>
+      </c>
+      <c r="J42">
+        <v>1600</v>
+      </c>
+      <c r="K42">
+        <v>1550</v>
+      </c>
+      <c r="L42">
+        <v>1500</v>
+      </c>
+      <c r="M42">
+        <v>1450</v>
+      </c>
+      <c r="N42">
+        <v>1400</v>
+      </c>
+      <c r="O42">
+        <v>1350</v>
+      </c>
+      <c r="P42">
+        <v>1300</v>
+      </c>
+      <c r="Q42">
+        <v>1250</v>
+      </c>
+      <c r="R42">
+        <v>1200</v>
+      </c>
+      <c r="S42">
+        <v>1150</v>
+      </c>
+      <c r="T42">
+        <v>1100</v>
+      </c>
+      <c r="U42">
+        <v>1050</v>
+      </c>
+      <c r="V42">
+        <v>1000</v>
+      </c>
+      <c r="W42">
+        <v>950</v>
+      </c>
+      <c r="X42">
+        <v>900</v>
+      </c>
+      <c r="Y42">
+        <v>850</v>
+      </c>
+      <c r="Z42">
+        <v>800</v>
+      </c>
+      <c r="AA42">
+        <v>750</v>
+      </c>
+      <c r="AB42">
+        <v>700</v>
+      </c>
+      <c r="AC42">
+        <v>650</v>
+      </c>
+      <c r="AD42">
+        <v>600</v>
+      </c>
+      <c r="AE42">
+        <v>550</v>
+      </c>
+      <c r="AF42">
+        <v>500</v>
+      </c>
+      <c r="AG42">
+        <v>450</v>
+      </c>
+      <c r="AH42">
+        <v>400</v>
+      </c>
+      <c r="AI42">
+        <v>350</v>
+      </c>
+      <c r="AJ42">
+        <v>300</v>
+      </c>
+      <c r="AK42">
+        <v>250</v>
+      </c>
+      <c r="AL42">
+        <v>200</v>
+      </c>
+      <c r="AM42">
+        <v>150</v>
+      </c>
+      <c r="AN42">
+        <v>100</v>
+      </c>
+      <c r="AO42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>45108</v>
+      </c>
+      <c r="B43" s="2">
+        <v>700</v>
+      </c>
+      <c r="C43">
+        <v>2000</v>
+      </c>
+      <c r="D43">
+        <v>1950</v>
+      </c>
+      <c r="E43">
+        <v>1900</v>
+      </c>
+      <c r="F43">
+        <v>1850</v>
+      </c>
+      <c r="G43">
+        <v>1800</v>
+      </c>
+      <c r="H43">
+        <v>1750</v>
+      </c>
+      <c r="I43">
+        <v>1700</v>
+      </c>
+      <c r="J43">
+        <v>1650</v>
+      </c>
+      <c r="K43">
+        <v>1600</v>
+      </c>
+      <c r="L43">
+        <v>1550</v>
+      </c>
+      <c r="M43">
+        <v>1500</v>
+      </c>
+      <c r="N43">
+        <v>1450</v>
+      </c>
+      <c r="O43">
+        <v>1400</v>
+      </c>
+      <c r="P43">
+        <v>1350</v>
+      </c>
+      <c r="Q43">
+        <v>1300</v>
+      </c>
+      <c r="R43">
+        <v>1250</v>
+      </c>
+      <c r="S43">
+        <v>1200</v>
+      </c>
+      <c r="T43">
+        <v>1150</v>
+      </c>
+      <c r="U43">
+        <v>1100</v>
+      </c>
+      <c r="V43">
+        <v>1050</v>
+      </c>
+      <c r="W43">
+        <v>1000</v>
+      </c>
+      <c r="X43">
+        <v>950</v>
+      </c>
+      <c r="Y43">
+        <v>900</v>
+      </c>
+      <c r="Z43">
+        <v>850</v>
+      </c>
+      <c r="AA43">
+        <v>800</v>
+      </c>
+      <c r="AB43">
+        <v>750</v>
+      </c>
+      <c r="AC43">
+        <v>700</v>
+      </c>
+      <c r="AD43">
+        <v>650</v>
+      </c>
+      <c r="AE43">
+        <v>600</v>
+      </c>
+      <c r="AF43">
+        <v>550</v>
+      </c>
+      <c r="AG43">
+        <v>500</v>
+      </c>
+      <c r="AH43">
+        <v>450</v>
+      </c>
+      <c r="AI43">
+        <v>400</v>
+      </c>
+      <c r="AJ43">
+        <v>350</v>
+      </c>
+      <c r="AK43">
+        <v>300</v>
+      </c>
+      <c r="AL43">
+        <v>250</v>
+      </c>
+      <c r="AM43">
+        <v>200</v>
+      </c>
+      <c r="AN43">
+        <v>150</v>
+      </c>
+      <c r="AO43">
+        <v>100</v>
+      </c>
+      <c r="AP43">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>45139</v>
+      </c>
+      <c r="B44" s="2">
+        <v>700</v>
+      </c>
+      <c r="C44">
+        <v>2050</v>
+      </c>
+      <c r="D44">
+        <v>2000</v>
+      </c>
+      <c r="E44">
+        <v>1950</v>
+      </c>
+      <c r="F44">
+        <v>1900</v>
+      </c>
+      <c r="G44">
+        <v>1850</v>
+      </c>
+      <c r="H44">
+        <v>1800</v>
+      </c>
+      <c r="I44">
+        <v>1750</v>
+      </c>
+      <c r="J44">
+        <v>1700</v>
+      </c>
+      <c r="K44">
+        <v>1650</v>
+      </c>
+      <c r="L44">
+        <v>1600</v>
+      </c>
+      <c r="M44">
+        <v>1550</v>
+      </c>
+      <c r="N44">
+        <v>1500</v>
+      </c>
+      <c r="O44">
+        <v>1450</v>
+      </c>
+      <c r="P44">
+        <v>1400</v>
+      </c>
+      <c r="Q44">
+        <v>1350</v>
+      </c>
+      <c r="R44">
+        <v>1300</v>
+      </c>
+      <c r="S44">
+        <v>1250</v>
+      </c>
+      <c r="T44">
+        <v>1200</v>
+      </c>
+      <c r="U44">
+        <v>1150</v>
+      </c>
+      <c r="V44">
+        <v>1100</v>
+      </c>
+      <c r="W44">
+        <v>1050</v>
+      </c>
+      <c r="X44">
+        <v>1000</v>
+      </c>
+      <c r="Y44">
+        <v>950</v>
+      </c>
+      <c r="Z44">
+        <v>900</v>
+      </c>
+      <c r="AA44">
+        <v>850</v>
+      </c>
+      <c r="AB44">
+        <v>800</v>
+      </c>
+      <c r="AC44">
+        <v>750</v>
+      </c>
+      <c r="AD44">
+        <v>700</v>
+      </c>
+      <c r="AE44">
+        <v>650</v>
+      </c>
+      <c r="AF44">
+        <v>600</v>
+      </c>
+      <c r="AG44">
+        <v>550</v>
+      </c>
+      <c r="AH44">
+        <v>500</v>
+      </c>
+      <c r="AI44">
+        <v>450</v>
+      </c>
+      <c r="AJ44">
+        <v>400</v>
+      </c>
+      <c r="AK44">
+        <v>350</v>
+      </c>
+      <c r="AL44">
+        <v>300</v>
+      </c>
+      <c r="AM44">
+        <v>250</v>
+      </c>
+      <c r="AN44">
+        <v>200</v>
+      </c>
+      <c r="AO44">
+        <v>150</v>
+      </c>
+      <c r="AP44">
+        <v>100</v>
+      </c>
+      <c r="AQ44">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>45170</v>
+      </c>
+      <c r="B45" s="2">
+        <v>700</v>
+      </c>
+      <c r="C45">
+        <v>2100</v>
+      </c>
+      <c r="D45">
+        <v>2050</v>
+      </c>
+      <c r="E45">
+        <v>2000</v>
+      </c>
+      <c r="F45">
+        <v>1950</v>
+      </c>
+      <c r="G45">
+        <v>1900</v>
+      </c>
+      <c r="H45">
+        <v>1850</v>
+      </c>
+      <c r="I45">
+        <v>1800</v>
+      </c>
+      <c r="J45">
+        <v>1750</v>
+      </c>
+      <c r="K45">
+        <v>1700</v>
+      </c>
+      <c r="L45">
+        <v>1650</v>
+      </c>
+      <c r="M45">
+        <v>1600</v>
+      </c>
+      <c r="N45">
+        <v>1550</v>
+      </c>
+      <c r="O45">
+        <v>1500</v>
+      </c>
+      <c r="P45">
+        <v>1450</v>
+      </c>
+      <c r="Q45">
+        <v>1400</v>
+      </c>
+      <c r="R45">
+        <v>1350</v>
+      </c>
+      <c r="S45">
+        <v>1300</v>
+      </c>
+      <c r="T45">
+        <v>1250</v>
+      </c>
+      <c r="U45">
+        <v>1200</v>
+      </c>
+      <c r="V45">
+        <v>1150</v>
+      </c>
+      <c r="W45">
+        <v>1100</v>
+      </c>
+      <c r="X45">
+        <v>1050</v>
+      </c>
+      <c r="Y45">
+        <v>1000</v>
+      </c>
+      <c r="Z45">
+        <v>950</v>
+      </c>
+      <c r="AA45">
+        <v>900</v>
+      </c>
+      <c r="AB45">
+        <v>850</v>
+      </c>
+      <c r="AC45">
+        <v>800</v>
+      </c>
+      <c r="AD45">
+        <v>750</v>
+      </c>
+      <c r="AE45">
+        <v>700</v>
+      </c>
+      <c r="AF45">
+        <v>650</v>
+      </c>
+      <c r="AG45">
+        <v>600</v>
+      </c>
+      <c r="AH45">
+        <v>550</v>
+      </c>
+      <c r="AI45">
+        <v>500</v>
+      </c>
+      <c r="AJ45">
+        <v>450</v>
+      </c>
+      <c r="AK45">
+        <v>400</v>
+      </c>
+      <c r="AL45">
+        <v>350</v>
+      </c>
+      <c r="AM45">
+        <v>300</v>
+      </c>
+      <c r="AN45">
+        <v>250</v>
+      </c>
+      <c r="AO45">
+        <v>200</v>
+      </c>
+      <c r="AP45">
+        <v>150</v>
+      </c>
+      <c r="AQ45">
+        <v>100</v>
+      </c>
+      <c r="AR45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>45200</v>
+      </c>
+      <c r="B46" s="2">
+        <v>700</v>
+      </c>
+      <c r="C46">
+        <v>2150</v>
+      </c>
+      <c r="D46">
+        <v>2100</v>
+      </c>
+      <c r="E46">
+        <v>2050</v>
+      </c>
+      <c r="F46">
+        <v>2000</v>
+      </c>
+      <c r="G46">
+        <v>1950</v>
+      </c>
+      <c r="H46">
+        <v>1900</v>
+      </c>
+      <c r="I46">
+        <v>1850</v>
+      </c>
+      <c r="J46">
+        <v>1800</v>
+      </c>
+      <c r="K46">
+        <v>1750</v>
+      </c>
+      <c r="L46">
+        <v>1700</v>
+      </c>
+      <c r="M46">
+        <v>1650</v>
+      </c>
+      <c r="N46">
+        <v>1600</v>
+      </c>
+      <c r="O46">
+        <v>1550</v>
+      </c>
+      <c r="P46">
+        <v>1500</v>
+      </c>
+      <c r="Q46">
+        <v>1450</v>
+      </c>
+      <c r="R46">
+        <v>1400</v>
+      </c>
+      <c r="S46">
+        <v>1350</v>
+      </c>
+      <c r="T46">
+        <v>1300</v>
+      </c>
+      <c r="U46">
+        <v>1250</v>
+      </c>
+      <c r="V46">
+        <v>1200</v>
+      </c>
+      <c r="W46">
+        <v>1150</v>
+      </c>
+      <c r="X46">
+        <v>1100</v>
+      </c>
+      <c r="Y46">
+        <v>1050</v>
+      </c>
+      <c r="Z46">
+        <v>1000</v>
+      </c>
+      <c r="AA46">
+        <v>950</v>
+      </c>
+      <c r="AB46">
+        <v>900</v>
+      </c>
+      <c r="AC46">
+        <v>850</v>
+      </c>
+      <c r="AD46">
+        <v>800</v>
+      </c>
+      <c r="AE46">
+        <v>750</v>
+      </c>
+      <c r="AF46">
+        <v>700</v>
+      </c>
+      <c r="AG46">
+        <v>650</v>
+      </c>
+      <c r="AH46">
+        <v>600</v>
+      </c>
+      <c r="AI46">
+        <v>550</v>
+      </c>
+      <c r="AJ46">
+        <v>500</v>
+      </c>
+      <c r="AK46">
+        <v>450</v>
+      </c>
+      <c r="AL46">
+        <v>400</v>
+      </c>
+      <c r="AM46">
+        <v>350</v>
+      </c>
+      <c r="AN46">
+        <v>300</v>
+      </c>
+      <c r="AO46">
+        <v>250</v>
+      </c>
+      <c r="AP46">
+        <v>200</v>
+      </c>
+      <c r="AQ46">
+        <v>150</v>
+      </c>
+      <c r="AR46">
+        <v>100</v>
+      </c>
+      <c r="AS46">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>45231</v>
+      </c>
+      <c r="B47" s="2">
+        <v>700</v>
+      </c>
+      <c r="C47">
+        <v>2200</v>
+      </c>
+      <c r="D47">
+        <v>2150</v>
+      </c>
+      <c r="E47">
+        <v>2100</v>
+      </c>
+      <c r="F47">
+        <v>2050</v>
+      </c>
+      <c r="G47">
+        <v>2000</v>
+      </c>
+      <c r="H47">
+        <v>1950</v>
+      </c>
+      <c r="I47">
+        <v>1900</v>
+      </c>
+      <c r="J47">
+        <v>1850</v>
+      </c>
+      <c r="K47">
+        <v>1800</v>
+      </c>
+      <c r="L47">
+        <v>1750</v>
+      </c>
+      <c r="M47">
+        <v>1700</v>
+      </c>
+      <c r="N47">
+        <v>1650</v>
+      </c>
+      <c r="O47">
+        <v>1600</v>
+      </c>
+      <c r="P47">
+        <v>1550</v>
+      </c>
+      <c r="Q47">
+        <v>1500</v>
+      </c>
+      <c r="R47">
+        <v>1450</v>
+      </c>
+      <c r="S47">
+        <v>1400</v>
+      </c>
+      <c r="T47">
+        <v>1350</v>
+      </c>
+      <c r="U47">
+        <v>1300</v>
+      </c>
+      <c r="V47">
+        <v>1250</v>
+      </c>
+      <c r="W47">
+        <v>1200</v>
+      </c>
+      <c r="X47">
+        <v>1150</v>
+      </c>
+      <c r="Y47">
+        <v>1100</v>
+      </c>
+      <c r="Z47">
+        <v>1050</v>
+      </c>
+      <c r="AA47">
+        <v>1000</v>
+      </c>
+      <c r="AB47">
+        <v>950</v>
+      </c>
+      <c r="AC47">
+        <v>900</v>
+      </c>
+      <c r="AD47">
+        <v>850</v>
+      </c>
+      <c r="AE47">
+        <v>800</v>
+      </c>
+      <c r="AF47">
+        <v>750</v>
+      </c>
+      <c r="AG47">
+        <v>700</v>
+      </c>
+      <c r="AH47">
+        <v>650</v>
+      </c>
+      <c r="AI47">
+        <v>600</v>
+      </c>
+      <c r="AJ47">
+        <v>550</v>
+      </c>
+      <c r="AK47">
+        <v>500</v>
+      </c>
+      <c r="AL47">
+        <v>450</v>
+      </c>
+      <c r="AM47">
+        <v>400</v>
+      </c>
+      <c r="AN47">
+        <v>350</v>
+      </c>
+      <c r="AO47">
+        <v>300</v>
+      </c>
+      <c r="AP47">
+        <v>250</v>
+      </c>
+      <c r="AQ47">
+        <v>200</v>
+      </c>
+      <c r="AR47">
+        <v>150</v>
+      </c>
+      <c r="AS47">
+        <v>100</v>
+      </c>
+      <c r="AT47">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>45261</v>
+      </c>
+      <c r="B48" s="2">
+        <v>700</v>
+      </c>
+      <c r="C48">
+        <v>2250</v>
+      </c>
+      <c r="D48">
+        <v>2200</v>
+      </c>
+      <c r="E48">
+        <v>2150</v>
+      </c>
+      <c r="F48">
+        <v>2100</v>
+      </c>
+      <c r="G48">
+        <v>2050</v>
+      </c>
+      <c r="H48">
+        <v>2000</v>
+      </c>
+      <c r="I48">
+        <v>1950</v>
+      </c>
+      <c r="J48">
+        <v>1900</v>
+      </c>
+      <c r="K48">
+        <v>1850</v>
+      </c>
+      <c r="L48">
+        <v>1800</v>
+      </c>
+      <c r="M48">
+        <v>1750</v>
+      </c>
+      <c r="N48">
+        <v>1700</v>
+      </c>
+      <c r="O48">
+        <v>1650</v>
+      </c>
+      <c r="P48">
+        <v>1600</v>
+      </c>
+      <c r="Q48">
+        <v>1550</v>
+      </c>
+      <c r="R48">
+        <v>1500</v>
+      </c>
+      <c r="S48">
+        <v>1450</v>
+      </c>
+      <c r="T48">
+        <v>1400</v>
+      </c>
+      <c r="U48">
+        <v>1350</v>
+      </c>
+      <c r="V48">
+        <v>1300</v>
+      </c>
+      <c r="W48">
+        <v>1250</v>
+      </c>
+      <c r="X48">
+        <v>1200</v>
+      </c>
+      <c r="Y48">
+        <v>1150</v>
+      </c>
+      <c r="Z48">
+        <v>1100</v>
+      </c>
+      <c r="AA48">
+        <v>1050</v>
+      </c>
+      <c r="AB48">
+        <v>1000</v>
+      </c>
+      <c r="AC48">
+        <v>950</v>
+      </c>
+      <c r="AD48">
+        <v>900</v>
+      </c>
+      <c r="AE48">
+        <v>850</v>
+      </c>
+      <c r="AF48">
+        <v>800</v>
+      </c>
+      <c r="AG48">
+        <v>750</v>
+      </c>
+      <c r="AH48">
+        <v>700</v>
+      </c>
+      <c r="AI48">
+        <v>650</v>
+      </c>
+      <c r="AJ48">
+        <v>600</v>
+      </c>
+      <c r="AK48">
+        <v>550</v>
+      </c>
+      <c r="AL48">
+        <v>500</v>
+      </c>
+      <c r="AM48">
+        <v>450</v>
+      </c>
+      <c r="AN48">
+        <v>400</v>
+      </c>
+      <c r="AO48">
+        <v>350</v>
+      </c>
+      <c r="AP48">
+        <v>300</v>
+      </c>
+      <c r="AQ48">
+        <v>250</v>
+      </c>
+      <c r="AR48">
+        <v>200</v>
+      </c>
+      <c r="AS48">
+        <v>150</v>
+      </c>
+      <c r="AT48">
+        <v>100</v>
+      </c>
+      <c r="AU48">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="4"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="4"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="4"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="4"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="4"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="4"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="4"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="4"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="4"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="4"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="4"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="4"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="4"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="4"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="4"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="4"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="4"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="4"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="4"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="4"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="4"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="4"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="4"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="4"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="4"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="4"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="4"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="4"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="4"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="4"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="4"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="4"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="4"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="4"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="4"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="4"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="4"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="4"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="4"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="4"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="4"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="4"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="4"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="4"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ117"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D2" sqref="D2"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4541,13 +7633,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CB117"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B4" sqref="B4:B60"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14578,13 +17670,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D3" sqref="D3"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14704,11 +17796,934 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C2" s="1">
+        <f>SUM(B4:B24)</f>
+        <v>15750</v>
+      </c>
+      <c r="D2" s="1">
+        <f>SUM(C24:W24)</f>
+        <v>11550</v>
+      </c>
+      <c r="E2" s="1">
+        <f>C2+D2</f>
+        <v>27300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>44652</v>
+      </c>
+      <c r="B4" s="2">
+        <v>750</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>44682</v>
+      </c>
+      <c r="B5" s="2">
+        <v>750</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>44713</v>
+      </c>
+      <c r="B6" s="2">
+        <v>750</v>
+      </c>
+      <c r="C6">
+        <v>150</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>44743</v>
+      </c>
+      <c r="B7" s="2">
+        <v>750</v>
+      </c>
+      <c r="C7">
+        <v>200</v>
+      </c>
+      <c r="D7">
+        <v>150</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>44774</v>
+      </c>
+      <c r="B8" s="2">
+        <v>750</v>
+      </c>
+      <c r="C8">
+        <v>250</v>
+      </c>
+      <c r="D8">
+        <v>200</v>
+      </c>
+      <c r="E8">
+        <v>150</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>44805</v>
+      </c>
+      <c r="B9" s="2">
+        <v>750</v>
+      </c>
+      <c r="C9">
+        <v>300</v>
+      </c>
+      <c r="D9">
+        <v>250</v>
+      </c>
+      <c r="E9">
+        <v>200</v>
+      </c>
+      <c r="F9">
+        <v>150</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>44835</v>
+      </c>
+      <c r="B10" s="2">
+        <v>750</v>
+      </c>
+      <c r="C10">
+        <v>350</v>
+      </c>
+      <c r="D10">
+        <v>300</v>
+      </c>
+      <c r="E10">
+        <v>250</v>
+      </c>
+      <c r="F10">
+        <v>200</v>
+      </c>
+      <c r="G10">
+        <v>150</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
+      </c>
+      <c r="I10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>44866</v>
+      </c>
+      <c r="B11" s="2">
+        <v>750</v>
+      </c>
+      <c r="C11">
+        <v>400</v>
+      </c>
+      <c r="D11">
+        <v>350</v>
+      </c>
+      <c r="E11">
+        <v>300</v>
+      </c>
+      <c r="F11">
+        <v>250</v>
+      </c>
+      <c r="G11">
+        <v>200</v>
+      </c>
+      <c r="H11">
+        <v>150</v>
+      </c>
+      <c r="I11">
+        <v>100</v>
+      </c>
+      <c r="J11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>44896</v>
+      </c>
+      <c r="B12" s="2">
+        <v>750</v>
+      </c>
+      <c r="C12">
+        <v>450</v>
+      </c>
+      <c r="D12">
+        <v>400</v>
+      </c>
+      <c r="E12">
+        <v>350</v>
+      </c>
+      <c r="F12">
+        <v>300</v>
+      </c>
+      <c r="G12">
+        <v>250</v>
+      </c>
+      <c r="H12">
+        <v>200</v>
+      </c>
+      <c r="I12">
+        <v>150</v>
+      </c>
+      <c r="J12">
+        <v>100</v>
+      </c>
+      <c r="K12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>44927</v>
+      </c>
+      <c r="B13" s="2">
+        <v>750</v>
+      </c>
+      <c r="C13">
+        <v>500</v>
+      </c>
+      <c r="D13">
+        <v>450</v>
+      </c>
+      <c r="E13">
+        <v>400</v>
+      </c>
+      <c r="F13">
+        <v>350</v>
+      </c>
+      <c r="G13">
+        <v>300</v>
+      </c>
+      <c r="H13">
+        <v>250</v>
+      </c>
+      <c r="I13">
+        <v>200</v>
+      </c>
+      <c r="J13">
+        <v>150</v>
+      </c>
+      <c r="K13">
+        <v>100</v>
+      </c>
+      <c r="L13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>44958</v>
+      </c>
+      <c r="B14" s="2">
+        <v>750</v>
+      </c>
+      <c r="C14">
+        <v>550</v>
+      </c>
+      <c r="D14">
+        <v>500</v>
+      </c>
+      <c r="E14">
+        <v>450</v>
+      </c>
+      <c r="F14">
+        <v>400</v>
+      </c>
+      <c r="G14">
+        <v>350</v>
+      </c>
+      <c r="H14">
+        <v>300</v>
+      </c>
+      <c r="I14">
+        <v>250</v>
+      </c>
+      <c r="J14">
+        <v>200</v>
+      </c>
+      <c r="K14">
+        <v>150</v>
+      </c>
+      <c r="L14">
+        <v>100</v>
+      </c>
+      <c r="M14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>44986</v>
+      </c>
+      <c r="B15" s="2">
+        <v>750</v>
+      </c>
+      <c r="C15">
+        <v>600</v>
+      </c>
+      <c r="D15">
+        <v>550</v>
+      </c>
+      <c r="E15">
+        <v>500</v>
+      </c>
+      <c r="F15">
+        <v>450</v>
+      </c>
+      <c r="G15">
+        <v>400</v>
+      </c>
+      <c r="H15">
+        <v>350</v>
+      </c>
+      <c r="I15">
+        <v>300</v>
+      </c>
+      <c r="J15">
+        <v>250</v>
+      </c>
+      <c r="K15">
+        <v>200</v>
+      </c>
+      <c r="L15">
+        <v>150</v>
+      </c>
+      <c r="M15">
+        <v>100</v>
+      </c>
+      <c r="N15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>45017</v>
+      </c>
+      <c r="B16" s="2">
+        <v>750</v>
+      </c>
+      <c r="C16">
+        <v>650</v>
+      </c>
+      <c r="D16">
+        <v>600</v>
+      </c>
+      <c r="E16">
+        <v>550</v>
+      </c>
+      <c r="F16">
+        <v>500</v>
+      </c>
+      <c r="G16">
+        <v>450</v>
+      </c>
+      <c r="H16">
+        <v>400</v>
+      </c>
+      <c r="I16">
+        <v>350</v>
+      </c>
+      <c r="J16">
+        <v>300</v>
+      </c>
+      <c r="K16">
+        <v>250</v>
+      </c>
+      <c r="L16">
+        <v>200</v>
+      </c>
+      <c r="M16">
+        <v>150</v>
+      </c>
+      <c r="N16">
+        <v>100</v>
+      </c>
+      <c r="O16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>45047</v>
+      </c>
+      <c r="B17" s="2">
+        <v>750</v>
+      </c>
+      <c r="C17">
+        <v>700</v>
+      </c>
+      <c r="D17">
+        <v>650</v>
+      </c>
+      <c r="E17">
+        <v>600</v>
+      </c>
+      <c r="F17">
+        <v>550</v>
+      </c>
+      <c r="G17">
+        <v>500</v>
+      </c>
+      <c r="H17">
+        <v>450</v>
+      </c>
+      <c r="I17">
+        <v>400</v>
+      </c>
+      <c r="J17">
+        <v>350</v>
+      </c>
+      <c r="K17">
+        <v>300</v>
+      </c>
+      <c r="L17">
+        <v>250</v>
+      </c>
+      <c r="M17">
+        <v>200</v>
+      </c>
+      <c r="N17">
+        <v>150</v>
+      </c>
+      <c r="O17">
+        <v>100</v>
+      </c>
+      <c r="P17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>45078</v>
+      </c>
+      <c r="B18" s="2">
+        <v>750</v>
+      </c>
+      <c r="C18">
+        <v>750</v>
+      </c>
+      <c r="D18">
+        <v>700</v>
+      </c>
+      <c r="E18">
+        <v>650</v>
+      </c>
+      <c r="F18">
+        <v>600</v>
+      </c>
+      <c r="G18">
+        <v>550</v>
+      </c>
+      <c r="H18">
+        <v>500</v>
+      </c>
+      <c r="I18">
+        <v>450</v>
+      </c>
+      <c r="J18">
+        <v>400</v>
+      </c>
+      <c r="K18">
+        <v>350</v>
+      </c>
+      <c r="L18">
+        <v>300</v>
+      </c>
+      <c r="M18">
+        <v>250</v>
+      </c>
+      <c r="N18">
+        <v>200</v>
+      </c>
+      <c r="O18">
+        <v>150</v>
+      </c>
+      <c r="P18">
+        <v>100</v>
+      </c>
+      <c r="Q18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>45108</v>
+      </c>
+      <c r="B19" s="2">
+        <v>750</v>
+      </c>
+      <c r="C19">
+        <v>800</v>
+      </c>
+      <c r="D19">
+        <v>750</v>
+      </c>
+      <c r="E19">
+        <v>700</v>
+      </c>
+      <c r="F19">
+        <v>650</v>
+      </c>
+      <c r="G19">
+        <v>600</v>
+      </c>
+      <c r="H19">
+        <v>550</v>
+      </c>
+      <c r="I19">
+        <v>500</v>
+      </c>
+      <c r="J19">
+        <v>450</v>
+      </c>
+      <c r="K19">
+        <v>400</v>
+      </c>
+      <c r="L19">
+        <v>350</v>
+      </c>
+      <c r="M19">
+        <v>300</v>
+      </c>
+      <c r="N19">
+        <v>250</v>
+      </c>
+      <c r="O19">
+        <v>200</v>
+      </c>
+      <c r="P19">
+        <v>150</v>
+      </c>
+      <c r="Q19">
+        <v>100</v>
+      </c>
+      <c r="R19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>45139</v>
+      </c>
+      <c r="B20" s="2">
+        <v>750</v>
+      </c>
+      <c r="C20">
+        <v>850</v>
+      </c>
+      <c r="D20">
+        <v>800</v>
+      </c>
+      <c r="E20">
+        <v>750</v>
+      </c>
+      <c r="F20">
+        <v>700</v>
+      </c>
+      <c r="G20">
+        <v>650</v>
+      </c>
+      <c r="H20">
+        <v>600</v>
+      </c>
+      <c r="I20">
+        <v>550</v>
+      </c>
+      <c r="J20">
+        <v>500</v>
+      </c>
+      <c r="K20">
+        <v>450</v>
+      </c>
+      <c r="L20">
+        <v>400</v>
+      </c>
+      <c r="M20">
+        <v>350</v>
+      </c>
+      <c r="N20">
+        <v>300</v>
+      </c>
+      <c r="O20">
+        <v>250</v>
+      </c>
+      <c r="P20">
+        <v>200</v>
+      </c>
+      <c r="Q20">
+        <v>150</v>
+      </c>
+      <c r="R20">
+        <v>100</v>
+      </c>
+      <c r="S20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>45170</v>
+      </c>
+      <c r="B21" s="2">
+        <v>750</v>
+      </c>
+      <c r="C21">
+        <v>900</v>
+      </c>
+      <c r="D21">
+        <v>850</v>
+      </c>
+      <c r="E21">
+        <v>800</v>
+      </c>
+      <c r="F21">
+        <v>750</v>
+      </c>
+      <c r="G21">
+        <v>700</v>
+      </c>
+      <c r="H21">
+        <v>650</v>
+      </c>
+      <c r="I21">
+        <v>600</v>
+      </c>
+      <c r="J21">
+        <v>550</v>
+      </c>
+      <c r="K21">
+        <v>500</v>
+      </c>
+      <c r="L21">
+        <v>450</v>
+      </c>
+      <c r="M21">
+        <v>400</v>
+      </c>
+      <c r="N21">
+        <v>350</v>
+      </c>
+      <c r="O21">
+        <v>300</v>
+      </c>
+      <c r="P21">
+        <v>250</v>
+      </c>
+      <c r="Q21">
+        <v>200</v>
+      </c>
+      <c r="R21">
+        <v>150</v>
+      </c>
+      <c r="S21">
+        <v>100</v>
+      </c>
+      <c r="T21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>45200</v>
+      </c>
+      <c r="B22" s="2">
+        <v>750</v>
+      </c>
+      <c r="C22">
+        <v>950</v>
+      </c>
+      <c r="D22">
+        <v>900</v>
+      </c>
+      <c r="E22">
+        <v>850</v>
+      </c>
+      <c r="F22">
+        <v>800</v>
+      </c>
+      <c r="G22">
+        <v>750</v>
+      </c>
+      <c r="H22">
+        <v>700</v>
+      </c>
+      <c r="I22">
+        <v>650</v>
+      </c>
+      <c r="J22">
+        <v>600</v>
+      </c>
+      <c r="K22">
+        <v>550</v>
+      </c>
+      <c r="L22">
+        <v>500</v>
+      </c>
+      <c r="M22">
+        <v>450</v>
+      </c>
+      <c r="N22">
+        <v>400</v>
+      </c>
+      <c r="O22">
+        <v>350</v>
+      </c>
+      <c r="P22">
+        <v>300</v>
+      </c>
+      <c r="Q22">
+        <v>250</v>
+      </c>
+      <c r="R22">
+        <v>200</v>
+      </c>
+      <c r="S22">
+        <v>150</v>
+      </c>
+      <c r="T22">
+        <v>100</v>
+      </c>
+      <c r="U22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>45231</v>
+      </c>
+      <c r="B23" s="2">
+        <v>750</v>
+      </c>
+      <c r="C23">
+        <v>1000</v>
+      </c>
+      <c r="D23">
+        <v>950</v>
+      </c>
+      <c r="E23">
+        <v>900</v>
+      </c>
+      <c r="F23">
+        <v>850</v>
+      </c>
+      <c r="G23">
+        <v>800</v>
+      </c>
+      <c r="H23">
+        <v>750</v>
+      </c>
+      <c r="I23">
+        <v>700</v>
+      </c>
+      <c r="J23">
+        <v>650</v>
+      </c>
+      <c r="K23">
+        <v>600</v>
+      </c>
+      <c r="L23">
+        <v>550</v>
+      </c>
+      <c r="M23">
+        <v>500</v>
+      </c>
+      <c r="N23">
+        <v>450</v>
+      </c>
+      <c r="O23">
+        <v>400</v>
+      </c>
+      <c r="P23">
+        <v>350</v>
+      </c>
+      <c r="Q23">
+        <v>300</v>
+      </c>
+      <c r="R23">
+        <v>250</v>
+      </c>
+      <c r="S23">
+        <v>200</v>
+      </c>
+      <c r="T23">
+        <v>150</v>
+      </c>
+      <c r="U23">
+        <v>100</v>
+      </c>
+      <c r="V23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>45261</v>
+      </c>
+      <c r="B24" s="2">
+        <v>750</v>
+      </c>
+      <c r="C24">
+        <v>1050</v>
+      </c>
+      <c r="D24">
+        <v>1000</v>
+      </c>
+      <c r="E24">
+        <v>950</v>
+      </c>
+      <c r="F24">
+        <v>900</v>
+      </c>
+      <c r="G24">
+        <v>850</v>
+      </c>
+      <c r="H24">
+        <v>800</v>
+      </c>
+      <c r="I24">
+        <v>750</v>
+      </c>
+      <c r="J24">
+        <v>700</v>
+      </c>
+      <c r="K24">
+        <v>650</v>
+      </c>
+      <c r="L24">
+        <v>600</v>
+      </c>
+      <c r="M24">
+        <v>550</v>
+      </c>
+      <c r="N24">
+        <v>500</v>
+      </c>
+      <c r="O24">
+        <v>450</v>
+      </c>
+      <c r="P24">
+        <v>400</v>
+      </c>
+      <c r="Q24">
+        <v>350</v>
+      </c>
+      <c r="R24">
+        <v>300</v>
+      </c>
+      <c r="S24">
+        <v>250</v>
+      </c>
+      <c r="T24">
+        <v>200</v>
+      </c>
+      <c r="U24">
+        <v>150</v>
+      </c>
+      <c r="V24">
+        <v>100</v>
+      </c>
+      <c r="W24">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D3" sqref="D3"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14936,13 +18951,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E2" sqref="E2"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18525,13 +22540,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E2" sqref="E2"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18629,13 +22644,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F2" sqref="F2"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19496,13 +23511,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20363,13 +24378,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E2" sqref="E2"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20467,13 +24482,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E2" sqref="E2"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24211,3750 +28226,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU121"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C2" s="1">
-        <f>SUM(B4:B48)</f>
-        <v>31500</v>
-      </c>
-      <c r="D2" s="1">
-        <f>SUM(C48:AU48)</f>
-        <v>51750</v>
-      </c>
-      <c r="E2" s="1">
-        <f>C2+D2</f>
-        <v>83250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>43922</v>
-      </c>
-      <c r="B4" s="2">
-        <v>700</v>
-      </c>
-      <c r="C4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>43952</v>
-      </c>
-      <c r="B5" s="2">
-        <v>700</v>
-      </c>
-      <c r="C5">
-        <v>100</v>
-      </c>
-      <c r="D5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>43983</v>
-      </c>
-      <c r="B6" s="2">
-        <v>700</v>
-      </c>
-      <c r="C6">
-        <v>150</v>
-      </c>
-      <c r="D6">
-        <v>100</v>
-      </c>
-      <c r="E6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>44013</v>
-      </c>
-      <c r="B7" s="2">
-        <v>700</v>
-      </c>
-      <c r="C7">
-        <v>200</v>
-      </c>
-      <c r="D7">
-        <v>150</v>
-      </c>
-      <c r="E7">
-        <v>100</v>
-      </c>
-      <c r="F7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>44044</v>
-      </c>
-      <c r="B8" s="2">
-        <v>700</v>
-      </c>
-      <c r="C8">
-        <v>250</v>
-      </c>
-      <c r="D8">
-        <v>200</v>
-      </c>
-      <c r="E8">
-        <v>150</v>
-      </c>
-      <c r="F8">
-        <v>100</v>
-      </c>
-      <c r="G8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>44075</v>
-      </c>
-      <c r="B9" s="2">
-        <v>700</v>
-      </c>
-      <c r="C9">
-        <v>300</v>
-      </c>
-      <c r="D9">
-        <v>250</v>
-      </c>
-      <c r="E9">
-        <v>200</v>
-      </c>
-      <c r="F9">
-        <v>150</v>
-      </c>
-      <c r="G9">
-        <v>100</v>
-      </c>
-      <c r="H9">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>44105</v>
-      </c>
-      <c r="B10" s="2">
-        <v>700</v>
-      </c>
-      <c r="C10">
-        <v>350</v>
-      </c>
-      <c r="D10">
-        <v>300</v>
-      </c>
-      <c r="E10">
-        <v>250</v>
-      </c>
-      <c r="F10">
-        <v>200</v>
-      </c>
-      <c r="G10">
-        <v>150</v>
-      </c>
-      <c r="H10">
-        <v>100</v>
-      </c>
-      <c r="I10">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>44136</v>
-      </c>
-      <c r="B11" s="2">
-        <v>700</v>
-      </c>
-      <c r="C11">
-        <v>400</v>
-      </c>
-      <c r="D11">
-        <v>350</v>
-      </c>
-      <c r="E11">
-        <v>300</v>
-      </c>
-      <c r="F11">
-        <v>250</v>
-      </c>
-      <c r="G11">
-        <v>200</v>
-      </c>
-      <c r="H11">
-        <v>150</v>
-      </c>
-      <c r="I11">
-        <v>100</v>
-      </c>
-      <c r="J11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>44166</v>
-      </c>
-      <c r="B12" s="2">
-        <v>700</v>
-      </c>
-      <c r="C12">
-        <v>450</v>
-      </c>
-      <c r="D12">
-        <v>400</v>
-      </c>
-      <c r="E12">
-        <v>350</v>
-      </c>
-      <c r="F12">
-        <v>300</v>
-      </c>
-      <c r="G12">
-        <v>250</v>
-      </c>
-      <c r="H12">
-        <v>200</v>
-      </c>
-      <c r="I12">
-        <v>150</v>
-      </c>
-      <c r="J12">
-        <v>100</v>
-      </c>
-      <c r="K12">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>44197</v>
-      </c>
-      <c r="B13" s="2">
-        <v>700</v>
-      </c>
-      <c r="C13">
-        <v>500</v>
-      </c>
-      <c r="D13">
-        <v>450</v>
-      </c>
-      <c r="E13">
-        <v>400</v>
-      </c>
-      <c r="F13">
-        <v>350</v>
-      </c>
-      <c r="G13">
-        <v>300</v>
-      </c>
-      <c r="H13">
-        <v>250</v>
-      </c>
-      <c r="I13">
-        <v>200</v>
-      </c>
-      <c r="J13">
-        <v>150</v>
-      </c>
-      <c r="K13">
-        <v>100</v>
-      </c>
-      <c r="L13">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>44228</v>
-      </c>
-      <c r="B14" s="2">
-        <v>700</v>
-      </c>
-      <c r="C14">
-        <v>550</v>
-      </c>
-      <c r="D14">
-        <v>500</v>
-      </c>
-      <c r="E14">
-        <v>450</v>
-      </c>
-      <c r="F14">
-        <v>400</v>
-      </c>
-      <c r="G14">
-        <v>350</v>
-      </c>
-      <c r="H14">
-        <v>300</v>
-      </c>
-      <c r="I14">
-        <v>250</v>
-      </c>
-      <c r="J14">
-        <v>200</v>
-      </c>
-      <c r="K14">
-        <v>150</v>
-      </c>
-      <c r="L14">
-        <v>100</v>
-      </c>
-      <c r="M14">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>44256</v>
-      </c>
-      <c r="B15" s="2">
-        <v>700</v>
-      </c>
-      <c r="C15">
-        <v>600</v>
-      </c>
-      <c r="D15">
-        <v>550</v>
-      </c>
-      <c r="E15">
-        <v>500</v>
-      </c>
-      <c r="F15">
-        <v>450</v>
-      </c>
-      <c r="G15">
-        <v>400</v>
-      </c>
-      <c r="H15">
-        <v>350</v>
-      </c>
-      <c r="I15">
-        <v>300</v>
-      </c>
-      <c r="J15">
-        <v>250</v>
-      </c>
-      <c r="K15">
-        <v>200</v>
-      </c>
-      <c r="L15">
-        <v>150</v>
-      </c>
-      <c r="M15">
-        <v>100</v>
-      </c>
-      <c r="N15">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>44287</v>
-      </c>
-      <c r="B16" s="2">
-        <v>700</v>
-      </c>
-      <c r="C16">
-        <v>650</v>
-      </c>
-      <c r="D16">
-        <v>600</v>
-      </c>
-      <c r="E16">
-        <v>550</v>
-      </c>
-      <c r="F16">
-        <v>500</v>
-      </c>
-      <c r="G16">
-        <v>450</v>
-      </c>
-      <c r="H16">
-        <v>400</v>
-      </c>
-      <c r="I16">
-        <v>350</v>
-      </c>
-      <c r="J16">
-        <v>300</v>
-      </c>
-      <c r="K16">
-        <v>250</v>
-      </c>
-      <c r="L16">
-        <v>200</v>
-      </c>
-      <c r="M16">
-        <v>150</v>
-      </c>
-      <c r="N16">
-        <v>100</v>
-      </c>
-      <c r="O16">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>44317</v>
-      </c>
-      <c r="B17" s="2">
-        <v>700</v>
-      </c>
-      <c r="C17">
-        <v>700</v>
-      </c>
-      <c r="D17">
-        <v>650</v>
-      </c>
-      <c r="E17">
-        <v>600</v>
-      </c>
-      <c r="F17">
-        <v>550</v>
-      </c>
-      <c r="G17">
-        <v>500</v>
-      </c>
-      <c r="H17">
-        <v>450</v>
-      </c>
-      <c r="I17">
-        <v>400</v>
-      </c>
-      <c r="J17">
-        <v>350</v>
-      </c>
-      <c r="K17">
-        <v>300</v>
-      </c>
-      <c r="L17">
-        <v>250</v>
-      </c>
-      <c r="M17">
-        <v>200</v>
-      </c>
-      <c r="N17">
-        <v>150</v>
-      </c>
-      <c r="O17">
-        <v>100</v>
-      </c>
-      <c r="P17">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>44348</v>
-      </c>
-      <c r="B18" s="2">
-        <v>700</v>
-      </c>
-      <c r="C18">
-        <v>750</v>
-      </c>
-      <c r="D18">
-        <v>700</v>
-      </c>
-      <c r="E18">
-        <v>650</v>
-      </c>
-      <c r="F18">
-        <v>600</v>
-      </c>
-      <c r="G18">
-        <v>550</v>
-      </c>
-      <c r="H18">
-        <v>500</v>
-      </c>
-      <c r="I18">
-        <v>450</v>
-      </c>
-      <c r="J18">
-        <v>400</v>
-      </c>
-      <c r="K18">
-        <v>350</v>
-      </c>
-      <c r="L18">
-        <v>300</v>
-      </c>
-      <c r="M18">
-        <v>250</v>
-      </c>
-      <c r="N18">
-        <v>200</v>
-      </c>
-      <c r="O18">
-        <v>150</v>
-      </c>
-      <c r="P18">
-        <v>100</v>
-      </c>
-      <c r="Q18">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>44378</v>
-      </c>
-      <c r="B19" s="2">
-        <v>700</v>
-      </c>
-      <c r="C19">
-        <v>800</v>
-      </c>
-      <c r="D19">
-        <v>750</v>
-      </c>
-      <c r="E19">
-        <v>700</v>
-      </c>
-      <c r="F19">
-        <v>650</v>
-      </c>
-      <c r="G19">
-        <v>600</v>
-      </c>
-      <c r="H19">
-        <v>550</v>
-      </c>
-      <c r="I19">
-        <v>500</v>
-      </c>
-      <c r="J19">
-        <v>450</v>
-      </c>
-      <c r="K19">
-        <v>400</v>
-      </c>
-      <c r="L19">
-        <v>350</v>
-      </c>
-      <c r="M19">
-        <v>300</v>
-      </c>
-      <c r="N19">
-        <v>250</v>
-      </c>
-      <c r="O19">
-        <v>200</v>
-      </c>
-      <c r="P19">
-        <v>150</v>
-      </c>
-      <c r="Q19">
-        <v>100</v>
-      </c>
-      <c r="R19">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>44409</v>
-      </c>
-      <c r="B20" s="2">
-        <v>700</v>
-      </c>
-      <c r="C20">
-        <v>850</v>
-      </c>
-      <c r="D20">
-        <v>800</v>
-      </c>
-      <c r="E20">
-        <v>750</v>
-      </c>
-      <c r="F20">
-        <v>700</v>
-      </c>
-      <c r="G20">
-        <v>650</v>
-      </c>
-      <c r="H20">
-        <v>600</v>
-      </c>
-      <c r="I20">
-        <v>550</v>
-      </c>
-      <c r="J20">
-        <v>500</v>
-      </c>
-      <c r="K20">
-        <v>450</v>
-      </c>
-      <c r="L20">
-        <v>400</v>
-      </c>
-      <c r="M20">
-        <v>350</v>
-      </c>
-      <c r="N20">
-        <v>300</v>
-      </c>
-      <c r="O20">
-        <v>250</v>
-      </c>
-      <c r="P20">
-        <v>200</v>
-      </c>
-      <c r="Q20">
-        <v>150</v>
-      </c>
-      <c r="R20">
-        <v>100</v>
-      </c>
-      <c r="S20">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>44440</v>
-      </c>
-      <c r="B21" s="2">
-        <v>700</v>
-      </c>
-      <c r="C21">
-        <v>900</v>
-      </c>
-      <c r="D21">
-        <v>850</v>
-      </c>
-      <c r="E21">
-        <v>800</v>
-      </c>
-      <c r="F21">
-        <v>750</v>
-      </c>
-      <c r="G21">
-        <v>700</v>
-      </c>
-      <c r="H21">
-        <v>650</v>
-      </c>
-      <c r="I21">
-        <v>600</v>
-      </c>
-      <c r="J21">
-        <v>550</v>
-      </c>
-      <c r="K21">
-        <v>500</v>
-      </c>
-      <c r="L21">
-        <v>450</v>
-      </c>
-      <c r="M21">
-        <v>400</v>
-      </c>
-      <c r="N21">
-        <v>350</v>
-      </c>
-      <c r="O21">
-        <v>300</v>
-      </c>
-      <c r="P21">
-        <v>250</v>
-      </c>
-      <c r="Q21">
-        <v>200</v>
-      </c>
-      <c r="R21">
-        <v>150</v>
-      </c>
-      <c r="S21">
-        <v>100</v>
-      </c>
-      <c r="T21">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>44470</v>
-      </c>
-      <c r="B22" s="2">
-        <v>700</v>
-      </c>
-      <c r="C22">
-        <v>950</v>
-      </c>
-      <c r="D22">
-        <v>900</v>
-      </c>
-      <c r="E22">
-        <v>850</v>
-      </c>
-      <c r="F22">
-        <v>800</v>
-      </c>
-      <c r="G22">
-        <v>750</v>
-      </c>
-      <c r="H22">
-        <v>700</v>
-      </c>
-      <c r="I22">
-        <v>650</v>
-      </c>
-      <c r="J22">
-        <v>600</v>
-      </c>
-      <c r="K22">
-        <v>550</v>
-      </c>
-      <c r="L22">
-        <v>500</v>
-      </c>
-      <c r="M22">
-        <v>450</v>
-      </c>
-      <c r="N22">
-        <v>400</v>
-      </c>
-      <c r="O22">
-        <v>350</v>
-      </c>
-      <c r="P22">
-        <v>300</v>
-      </c>
-      <c r="Q22">
-        <v>250</v>
-      </c>
-      <c r="R22">
-        <v>200</v>
-      </c>
-      <c r="S22">
-        <v>150</v>
-      </c>
-      <c r="T22">
-        <v>100</v>
-      </c>
-      <c r="U22">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>44501</v>
-      </c>
-      <c r="B23" s="2">
-        <v>700</v>
-      </c>
-      <c r="C23">
-        <v>1000</v>
-      </c>
-      <c r="D23">
-        <v>950</v>
-      </c>
-      <c r="E23">
-        <v>900</v>
-      </c>
-      <c r="F23">
-        <v>850</v>
-      </c>
-      <c r="G23">
-        <v>800</v>
-      </c>
-      <c r="H23">
-        <v>750</v>
-      </c>
-      <c r="I23">
-        <v>700</v>
-      </c>
-      <c r="J23">
-        <v>650</v>
-      </c>
-      <c r="K23">
-        <v>600</v>
-      </c>
-      <c r="L23">
-        <v>550</v>
-      </c>
-      <c r="M23">
-        <v>500</v>
-      </c>
-      <c r="N23">
-        <v>450</v>
-      </c>
-      <c r="O23">
-        <v>400</v>
-      </c>
-      <c r="P23">
-        <v>350</v>
-      </c>
-      <c r="Q23">
-        <v>300</v>
-      </c>
-      <c r="R23">
-        <v>250</v>
-      </c>
-      <c r="S23">
-        <v>200</v>
-      </c>
-      <c r="T23">
-        <v>150</v>
-      </c>
-      <c r="U23">
-        <v>100</v>
-      </c>
-      <c r="V23">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>44531</v>
-      </c>
-      <c r="B24" s="2">
-        <v>700</v>
-      </c>
-      <c r="C24">
-        <v>1050</v>
-      </c>
-      <c r="D24">
-        <v>1000</v>
-      </c>
-      <c r="E24">
-        <v>950</v>
-      </c>
-      <c r="F24">
-        <v>900</v>
-      </c>
-      <c r="G24">
-        <v>850</v>
-      </c>
-      <c r="H24">
-        <v>800</v>
-      </c>
-      <c r="I24">
-        <v>750</v>
-      </c>
-      <c r="J24">
-        <v>700</v>
-      </c>
-      <c r="K24">
-        <v>650</v>
-      </c>
-      <c r="L24">
-        <v>600</v>
-      </c>
-      <c r="M24">
-        <v>550</v>
-      </c>
-      <c r="N24">
-        <v>500</v>
-      </c>
-      <c r="O24">
-        <v>450</v>
-      </c>
-      <c r="P24">
-        <v>400</v>
-      </c>
-      <c r="Q24">
-        <v>350</v>
-      </c>
-      <c r="R24">
-        <v>300</v>
-      </c>
-      <c r="S24">
-        <v>250</v>
-      </c>
-      <c r="T24">
-        <v>200</v>
-      </c>
-      <c r="U24">
-        <v>150</v>
-      </c>
-      <c r="V24">
-        <v>100</v>
-      </c>
-      <c r="W24">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>44562</v>
-      </c>
-      <c r="B25" s="2">
-        <v>700</v>
-      </c>
-      <c r="C25">
-        <v>1100</v>
-      </c>
-      <c r="D25">
-        <v>1050</v>
-      </c>
-      <c r="E25">
-        <v>1000</v>
-      </c>
-      <c r="F25">
-        <v>950</v>
-      </c>
-      <c r="G25">
-        <v>900</v>
-      </c>
-      <c r="H25">
-        <v>850</v>
-      </c>
-      <c r="I25">
-        <v>800</v>
-      </c>
-      <c r="J25">
-        <v>750</v>
-      </c>
-      <c r="K25">
-        <v>700</v>
-      </c>
-      <c r="L25">
-        <v>650</v>
-      </c>
-      <c r="M25">
-        <v>600</v>
-      </c>
-      <c r="N25">
-        <v>550</v>
-      </c>
-      <c r="O25">
-        <v>500</v>
-      </c>
-      <c r="P25">
-        <v>450</v>
-      </c>
-      <c r="Q25">
-        <v>400</v>
-      </c>
-      <c r="R25">
-        <v>350</v>
-      </c>
-      <c r="S25">
-        <v>300</v>
-      </c>
-      <c r="T25">
-        <v>250</v>
-      </c>
-      <c r="U25">
-        <v>200</v>
-      </c>
-      <c r="V25">
-        <v>150</v>
-      </c>
-      <c r="W25">
-        <v>100</v>
-      </c>
-      <c r="X25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>44593</v>
-      </c>
-      <c r="B26" s="2">
-        <v>700</v>
-      </c>
-      <c r="C26">
-        <v>1150</v>
-      </c>
-      <c r="D26">
-        <v>1100</v>
-      </c>
-      <c r="E26">
-        <v>1050</v>
-      </c>
-      <c r="F26">
-        <v>1000</v>
-      </c>
-      <c r="G26">
-        <v>950</v>
-      </c>
-      <c r="H26">
-        <v>900</v>
-      </c>
-      <c r="I26">
-        <v>850</v>
-      </c>
-      <c r="J26">
-        <v>800</v>
-      </c>
-      <c r="K26">
-        <v>750</v>
-      </c>
-      <c r="L26">
-        <v>700</v>
-      </c>
-      <c r="M26">
-        <v>650</v>
-      </c>
-      <c r="N26">
-        <v>600</v>
-      </c>
-      <c r="O26">
-        <v>550</v>
-      </c>
-      <c r="P26">
-        <v>500</v>
-      </c>
-      <c r="Q26">
-        <v>450</v>
-      </c>
-      <c r="R26">
-        <v>400</v>
-      </c>
-      <c r="S26">
-        <v>350</v>
-      </c>
-      <c r="T26">
-        <v>300</v>
-      </c>
-      <c r="U26">
-        <v>250</v>
-      </c>
-      <c r="V26">
-        <v>200</v>
-      </c>
-      <c r="W26">
-        <v>150</v>
-      </c>
-      <c r="X26">
-        <v>100</v>
-      </c>
-      <c r="Y26">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>44621</v>
-      </c>
-      <c r="B27" s="2">
-        <v>700</v>
-      </c>
-      <c r="C27">
-        <v>1200</v>
-      </c>
-      <c r="D27">
-        <v>1150</v>
-      </c>
-      <c r="E27">
-        <v>1100</v>
-      </c>
-      <c r="F27">
-        <v>1050</v>
-      </c>
-      <c r="G27">
-        <v>1000</v>
-      </c>
-      <c r="H27">
-        <v>950</v>
-      </c>
-      <c r="I27">
-        <v>900</v>
-      </c>
-      <c r="J27">
-        <v>850</v>
-      </c>
-      <c r="K27">
-        <v>800</v>
-      </c>
-      <c r="L27">
-        <v>750</v>
-      </c>
-      <c r="M27">
-        <v>700</v>
-      </c>
-      <c r="N27">
-        <v>650</v>
-      </c>
-      <c r="O27">
-        <v>600</v>
-      </c>
-      <c r="P27">
-        <v>550</v>
-      </c>
-      <c r="Q27">
-        <v>500</v>
-      </c>
-      <c r="R27">
-        <v>450</v>
-      </c>
-      <c r="S27">
-        <v>400</v>
-      </c>
-      <c r="T27">
-        <v>350</v>
-      </c>
-      <c r="U27">
-        <v>300</v>
-      </c>
-      <c r="V27">
-        <v>250</v>
-      </c>
-      <c r="W27">
-        <v>200</v>
-      </c>
-      <c r="X27">
-        <v>150</v>
-      </c>
-      <c r="Y27">
-        <v>100</v>
-      </c>
-      <c r="Z27">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>44652</v>
-      </c>
-      <c r="B28" s="2">
-        <v>700</v>
-      </c>
-      <c r="C28">
-        <v>1250</v>
-      </c>
-      <c r="D28">
-        <v>1200</v>
-      </c>
-      <c r="E28">
-        <v>1150</v>
-      </c>
-      <c r="F28">
-        <v>1100</v>
-      </c>
-      <c r="G28">
-        <v>1050</v>
-      </c>
-      <c r="H28">
-        <v>1000</v>
-      </c>
-      <c r="I28">
-        <v>950</v>
-      </c>
-      <c r="J28">
-        <v>900</v>
-      </c>
-      <c r="K28">
-        <v>850</v>
-      </c>
-      <c r="L28">
-        <v>800</v>
-      </c>
-      <c r="M28">
-        <v>750</v>
-      </c>
-      <c r="N28">
-        <v>700</v>
-      </c>
-      <c r="O28">
-        <v>650</v>
-      </c>
-      <c r="P28">
-        <v>600</v>
-      </c>
-      <c r="Q28">
-        <v>550</v>
-      </c>
-      <c r="R28">
-        <v>500</v>
-      </c>
-      <c r="S28">
-        <v>450</v>
-      </c>
-      <c r="T28">
-        <v>400</v>
-      </c>
-      <c r="U28">
-        <v>350</v>
-      </c>
-      <c r="V28">
-        <v>300</v>
-      </c>
-      <c r="W28">
-        <v>250</v>
-      </c>
-      <c r="X28">
-        <v>200</v>
-      </c>
-      <c r="Y28">
-        <v>150</v>
-      </c>
-      <c r="Z28">
-        <v>100</v>
-      </c>
-      <c r="AA28">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>44682</v>
-      </c>
-      <c r="B29" s="2">
-        <v>700</v>
-      </c>
-      <c r="C29">
-        <v>1300</v>
-      </c>
-      <c r="D29">
-        <v>1250</v>
-      </c>
-      <c r="E29">
-        <v>1200</v>
-      </c>
-      <c r="F29">
-        <v>1150</v>
-      </c>
-      <c r="G29">
-        <v>1100</v>
-      </c>
-      <c r="H29">
-        <v>1050</v>
-      </c>
-      <c r="I29">
-        <v>1000</v>
-      </c>
-      <c r="J29">
-        <v>950</v>
-      </c>
-      <c r="K29">
-        <v>900</v>
-      </c>
-      <c r="L29">
-        <v>850</v>
-      </c>
-      <c r="M29">
-        <v>800</v>
-      </c>
-      <c r="N29">
-        <v>750</v>
-      </c>
-      <c r="O29">
-        <v>700</v>
-      </c>
-      <c r="P29">
-        <v>650</v>
-      </c>
-      <c r="Q29">
-        <v>600</v>
-      </c>
-      <c r="R29">
-        <v>550</v>
-      </c>
-      <c r="S29">
-        <v>500</v>
-      </c>
-      <c r="T29">
-        <v>450</v>
-      </c>
-      <c r="U29">
-        <v>400</v>
-      </c>
-      <c r="V29">
-        <v>350</v>
-      </c>
-      <c r="W29">
-        <v>300</v>
-      </c>
-      <c r="X29">
-        <v>250</v>
-      </c>
-      <c r="Y29">
-        <v>200</v>
-      </c>
-      <c r="Z29">
-        <v>150</v>
-      </c>
-      <c r="AA29">
-        <v>100</v>
-      </c>
-      <c r="AB29">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>44713</v>
-      </c>
-      <c r="B30" s="2">
-        <v>700</v>
-      </c>
-      <c r="C30">
-        <v>1350</v>
-      </c>
-      <c r="D30">
-        <v>1300</v>
-      </c>
-      <c r="E30">
-        <v>1250</v>
-      </c>
-      <c r="F30">
-        <v>1200</v>
-      </c>
-      <c r="G30">
-        <v>1150</v>
-      </c>
-      <c r="H30">
-        <v>1100</v>
-      </c>
-      <c r="I30">
-        <v>1050</v>
-      </c>
-      <c r="J30">
-        <v>1000</v>
-      </c>
-      <c r="K30">
-        <v>950</v>
-      </c>
-      <c r="L30">
-        <v>900</v>
-      </c>
-      <c r="M30">
-        <v>850</v>
-      </c>
-      <c r="N30">
-        <v>800</v>
-      </c>
-      <c r="O30">
-        <v>750</v>
-      </c>
-      <c r="P30">
-        <v>700</v>
-      </c>
-      <c r="Q30">
-        <v>650</v>
-      </c>
-      <c r="R30">
-        <v>600</v>
-      </c>
-      <c r="S30">
-        <v>550</v>
-      </c>
-      <c r="T30">
-        <v>500</v>
-      </c>
-      <c r="U30">
-        <v>450</v>
-      </c>
-      <c r="V30">
-        <v>400</v>
-      </c>
-      <c r="W30">
-        <v>350</v>
-      </c>
-      <c r="X30">
-        <v>300</v>
-      </c>
-      <c r="Y30">
-        <v>250</v>
-      </c>
-      <c r="Z30">
-        <v>200</v>
-      </c>
-      <c r="AA30">
-        <v>150</v>
-      </c>
-      <c r="AB30">
-        <v>100</v>
-      </c>
-      <c r="AC30">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>44743</v>
-      </c>
-      <c r="B31" s="2">
-        <v>700</v>
-      </c>
-      <c r="C31">
-        <v>1400</v>
-      </c>
-      <c r="D31">
-        <v>1350</v>
-      </c>
-      <c r="E31">
-        <v>1300</v>
-      </c>
-      <c r="F31">
-        <v>1250</v>
-      </c>
-      <c r="G31">
-        <v>1200</v>
-      </c>
-      <c r="H31">
-        <v>1150</v>
-      </c>
-      <c r="I31">
-        <v>1100</v>
-      </c>
-      <c r="J31">
-        <v>1050</v>
-      </c>
-      <c r="K31">
-        <v>1000</v>
-      </c>
-      <c r="L31">
-        <v>950</v>
-      </c>
-      <c r="M31">
-        <v>900</v>
-      </c>
-      <c r="N31">
-        <v>850</v>
-      </c>
-      <c r="O31">
-        <v>800</v>
-      </c>
-      <c r="P31">
-        <v>750</v>
-      </c>
-      <c r="Q31">
-        <v>700</v>
-      </c>
-      <c r="R31">
-        <v>650</v>
-      </c>
-      <c r="S31">
-        <v>600</v>
-      </c>
-      <c r="T31">
-        <v>550</v>
-      </c>
-      <c r="U31">
-        <v>500</v>
-      </c>
-      <c r="V31">
-        <v>450</v>
-      </c>
-      <c r="W31">
-        <v>400</v>
-      </c>
-      <c r="X31">
-        <v>350</v>
-      </c>
-      <c r="Y31">
-        <v>300</v>
-      </c>
-      <c r="Z31">
-        <v>250</v>
-      </c>
-      <c r="AA31">
-        <v>200</v>
-      </c>
-      <c r="AB31">
-        <v>150</v>
-      </c>
-      <c r="AC31">
-        <v>100</v>
-      </c>
-      <c r="AD31">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <v>44774</v>
-      </c>
-      <c r="B32" s="2">
-        <v>700</v>
-      </c>
-      <c r="C32">
-        <v>1450</v>
-      </c>
-      <c r="D32">
-        <v>1400</v>
-      </c>
-      <c r="E32">
-        <v>1350</v>
-      </c>
-      <c r="F32">
-        <v>1300</v>
-      </c>
-      <c r="G32">
-        <v>1250</v>
-      </c>
-      <c r="H32">
-        <v>1200</v>
-      </c>
-      <c r="I32">
-        <v>1150</v>
-      </c>
-      <c r="J32">
-        <v>1100</v>
-      </c>
-      <c r="K32">
-        <v>1050</v>
-      </c>
-      <c r="L32">
-        <v>1000</v>
-      </c>
-      <c r="M32">
-        <v>950</v>
-      </c>
-      <c r="N32">
-        <v>900</v>
-      </c>
-      <c r="O32">
-        <v>850</v>
-      </c>
-      <c r="P32">
-        <v>800</v>
-      </c>
-      <c r="Q32">
-        <v>750</v>
-      </c>
-      <c r="R32">
-        <v>700</v>
-      </c>
-      <c r="S32">
-        <v>650</v>
-      </c>
-      <c r="T32">
-        <v>600</v>
-      </c>
-      <c r="U32">
-        <v>550</v>
-      </c>
-      <c r="V32">
-        <v>500</v>
-      </c>
-      <c r="W32">
-        <v>450</v>
-      </c>
-      <c r="X32">
-        <v>400</v>
-      </c>
-      <c r="Y32">
-        <v>350</v>
-      </c>
-      <c r="Z32">
-        <v>300</v>
-      </c>
-      <c r="AA32">
-        <v>250</v>
-      </c>
-      <c r="AB32">
-        <v>200</v>
-      </c>
-      <c r="AC32">
-        <v>150</v>
-      </c>
-      <c r="AD32">
-        <v>100</v>
-      </c>
-      <c r="AE32">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <v>44805</v>
-      </c>
-      <c r="B33" s="2">
-        <v>700</v>
-      </c>
-      <c r="C33">
-        <v>1500</v>
-      </c>
-      <c r="D33">
-        <v>1450</v>
-      </c>
-      <c r="E33">
-        <v>1400</v>
-      </c>
-      <c r="F33">
-        <v>1350</v>
-      </c>
-      <c r="G33">
-        <v>1300</v>
-      </c>
-      <c r="H33">
-        <v>1250</v>
-      </c>
-      <c r="I33">
-        <v>1200</v>
-      </c>
-      <c r="J33">
-        <v>1150</v>
-      </c>
-      <c r="K33">
-        <v>1100</v>
-      </c>
-      <c r="L33">
-        <v>1050</v>
-      </c>
-      <c r="M33">
-        <v>1000</v>
-      </c>
-      <c r="N33">
-        <v>950</v>
-      </c>
-      <c r="O33">
-        <v>900</v>
-      </c>
-      <c r="P33">
-        <v>850</v>
-      </c>
-      <c r="Q33">
-        <v>800</v>
-      </c>
-      <c r="R33">
-        <v>750</v>
-      </c>
-      <c r="S33">
-        <v>700</v>
-      </c>
-      <c r="T33">
-        <v>650</v>
-      </c>
-      <c r="U33">
-        <v>600</v>
-      </c>
-      <c r="V33">
-        <v>550</v>
-      </c>
-      <c r="W33">
-        <v>500</v>
-      </c>
-      <c r="X33">
-        <v>450</v>
-      </c>
-      <c r="Y33">
-        <v>400</v>
-      </c>
-      <c r="Z33">
-        <v>350</v>
-      </c>
-      <c r="AA33">
-        <v>300</v>
-      </c>
-      <c r="AB33">
-        <v>250</v>
-      </c>
-      <c r="AC33">
-        <v>200</v>
-      </c>
-      <c r="AD33">
-        <v>150</v>
-      </c>
-      <c r="AE33">
-        <v>100</v>
-      </c>
-      <c r="AF33">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
-        <v>44835</v>
-      </c>
-      <c r="B34" s="2">
-        <v>700</v>
-      </c>
-      <c r="C34">
-        <v>1550</v>
-      </c>
-      <c r="D34">
-        <v>1500</v>
-      </c>
-      <c r="E34">
-        <v>1450</v>
-      </c>
-      <c r="F34">
-        <v>1400</v>
-      </c>
-      <c r="G34">
-        <v>1350</v>
-      </c>
-      <c r="H34">
-        <v>1300</v>
-      </c>
-      <c r="I34">
-        <v>1250</v>
-      </c>
-      <c r="J34">
-        <v>1200</v>
-      </c>
-      <c r="K34">
-        <v>1150</v>
-      </c>
-      <c r="L34">
-        <v>1100</v>
-      </c>
-      <c r="M34">
-        <v>1050</v>
-      </c>
-      <c r="N34">
-        <v>1000</v>
-      </c>
-      <c r="O34">
-        <v>950</v>
-      </c>
-      <c r="P34">
-        <v>900</v>
-      </c>
-      <c r="Q34">
-        <v>850</v>
-      </c>
-      <c r="R34">
-        <v>800</v>
-      </c>
-      <c r="S34">
-        <v>750</v>
-      </c>
-      <c r="T34">
-        <v>700</v>
-      </c>
-      <c r="U34">
-        <v>650</v>
-      </c>
-      <c r="V34">
-        <v>600</v>
-      </c>
-      <c r="W34">
-        <v>550</v>
-      </c>
-      <c r="X34">
-        <v>500</v>
-      </c>
-      <c r="Y34">
-        <v>450</v>
-      </c>
-      <c r="Z34">
-        <v>400</v>
-      </c>
-      <c r="AA34">
-        <v>350</v>
-      </c>
-      <c r="AB34">
-        <v>300</v>
-      </c>
-      <c r="AC34">
-        <v>250</v>
-      </c>
-      <c r="AD34">
-        <v>200</v>
-      </c>
-      <c r="AE34">
-        <v>150</v>
-      </c>
-      <c r="AF34">
-        <v>100</v>
-      </c>
-      <c r="AG34">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
-        <v>44866</v>
-      </c>
-      <c r="B35" s="2">
-        <v>700</v>
-      </c>
-      <c r="C35">
-        <v>1600</v>
-      </c>
-      <c r="D35">
-        <v>1550</v>
-      </c>
-      <c r="E35">
-        <v>1500</v>
-      </c>
-      <c r="F35">
-        <v>1450</v>
-      </c>
-      <c r="G35">
-        <v>1400</v>
-      </c>
-      <c r="H35">
-        <v>1350</v>
-      </c>
-      <c r="I35">
-        <v>1300</v>
-      </c>
-      <c r="J35">
-        <v>1250</v>
-      </c>
-      <c r="K35">
-        <v>1200</v>
-      </c>
-      <c r="L35">
-        <v>1150</v>
-      </c>
-      <c r="M35">
-        <v>1100</v>
-      </c>
-      <c r="N35">
-        <v>1050</v>
-      </c>
-      <c r="O35">
-        <v>1000</v>
-      </c>
-      <c r="P35">
-        <v>950</v>
-      </c>
-      <c r="Q35">
-        <v>900</v>
-      </c>
-      <c r="R35">
-        <v>850</v>
-      </c>
-      <c r="S35">
-        <v>800</v>
-      </c>
-      <c r="T35">
-        <v>750</v>
-      </c>
-      <c r="U35">
-        <v>700</v>
-      </c>
-      <c r="V35">
-        <v>650</v>
-      </c>
-      <c r="W35">
-        <v>600</v>
-      </c>
-      <c r="X35">
-        <v>550</v>
-      </c>
-      <c r="Y35">
-        <v>500</v>
-      </c>
-      <c r="Z35">
-        <v>450</v>
-      </c>
-      <c r="AA35">
-        <v>400</v>
-      </c>
-      <c r="AB35">
-        <v>350</v>
-      </c>
-      <c r="AC35">
-        <v>300</v>
-      </c>
-      <c r="AD35">
-        <v>250</v>
-      </c>
-      <c r="AE35">
-        <v>200</v>
-      </c>
-      <c r="AF35">
-        <v>150</v>
-      </c>
-      <c r="AG35">
-        <v>100</v>
-      </c>
-      <c r="AH35">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
-        <v>44896</v>
-      </c>
-      <c r="B36" s="2">
-        <v>700</v>
-      </c>
-      <c r="C36">
-        <v>1650</v>
-      </c>
-      <c r="D36">
-        <v>1600</v>
-      </c>
-      <c r="E36">
-        <v>1550</v>
-      </c>
-      <c r="F36">
-        <v>1500</v>
-      </c>
-      <c r="G36">
-        <v>1450</v>
-      </c>
-      <c r="H36">
-        <v>1400</v>
-      </c>
-      <c r="I36">
-        <v>1350</v>
-      </c>
-      <c r="J36">
-        <v>1300</v>
-      </c>
-      <c r="K36">
-        <v>1250</v>
-      </c>
-      <c r="L36">
-        <v>1200</v>
-      </c>
-      <c r="M36">
-        <v>1150</v>
-      </c>
-      <c r="N36">
-        <v>1100</v>
-      </c>
-      <c r="O36">
-        <v>1050</v>
-      </c>
-      <c r="P36">
-        <v>1000</v>
-      </c>
-      <c r="Q36">
-        <v>950</v>
-      </c>
-      <c r="R36">
-        <v>900</v>
-      </c>
-      <c r="S36">
-        <v>850</v>
-      </c>
-      <c r="T36">
-        <v>800</v>
-      </c>
-      <c r="U36">
-        <v>750</v>
-      </c>
-      <c r="V36">
-        <v>700</v>
-      </c>
-      <c r="W36">
-        <v>650</v>
-      </c>
-      <c r="X36">
-        <v>600</v>
-      </c>
-      <c r="Y36">
-        <v>550</v>
-      </c>
-      <c r="Z36">
-        <v>500</v>
-      </c>
-      <c r="AA36">
-        <v>450</v>
-      </c>
-      <c r="AB36">
-        <v>400</v>
-      </c>
-      <c r="AC36">
-        <v>350</v>
-      </c>
-      <c r="AD36">
-        <v>300</v>
-      </c>
-      <c r="AE36">
-        <v>250</v>
-      </c>
-      <c r="AF36">
-        <v>200</v>
-      </c>
-      <c r="AG36">
-        <v>150</v>
-      </c>
-      <c r="AH36">
-        <v>100</v>
-      </c>
-      <c r="AI36">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <v>44927</v>
-      </c>
-      <c r="B37" s="2">
-        <v>700</v>
-      </c>
-      <c r="C37">
-        <v>1700</v>
-      </c>
-      <c r="D37">
-        <v>1650</v>
-      </c>
-      <c r="E37">
-        <v>1600</v>
-      </c>
-      <c r="F37">
-        <v>1550</v>
-      </c>
-      <c r="G37">
-        <v>1500</v>
-      </c>
-      <c r="H37">
-        <v>1450</v>
-      </c>
-      <c r="I37">
-        <v>1400</v>
-      </c>
-      <c r="J37">
-        <v>1350</v>
-      </c>
-      <c r="K37">
-        <v>1300</v>
-      </c>
-      <c r="L37">
-        <v>1250</v>
-      </c>
-      <c r="M37">
-        <v>1200</v>
-      </c>
-      <c r="N37">
-        <v>1150</v>
-      </c>
-      <c r="O37">
-        <v>1100</v>
-      </c>
-      <c r="P37">
-        <v>1050</v>
-      </c>
-      <c r="Q37">
-        <v>1000</v>
-      </c>
-      <c r="R37">
-        <v>950</v>
-      </c>
-      <c r="S37">
-        <v>900</v>
-      </c>
-      <c r="T37">
-        <v>850</v>
-      </c>
-      <c r="U37">
-        <v>800</v>
-      </c>
-      <c r="V37">
-        <v>750</v>
-      </c>
-      <c r="W37">
-        <v>700</v>
-      </c>
-      <c r="X37">
-        <v>650</v>
-      </c>
-      <c r="Y37">
-        <v>600</v>
-      </c>
-      <c r="Z37">
-        <v>550</v>
-      </c>
-      <c r="AA37">
-        <v>500</v>
-      </c>
-      <c r="AB37">
-        <v>450</v>
-      </c>
-      <c r="AC37">
-        <v>400</v>
-      </c>
-      <c r="AD37">
-        <v>350</v>
-      </c>
-      <c r="AE37">
-        <v>300</v>
-      </c>
-      <c r="AF37">
-        <v>250</v>
-      </c>
-      <c r="AG37">
-        <v>200</v>
-      </c>
-      <c r="AH37">
-        <v>150</v>
-      </c>
-      <c r="AI37">
-        <v>100</v>
-      </c>
-      <c r="AJ37">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>44958</v>
-      </c>
-      <c r="B38" s="2">
-        <v>700</v>
-      </c>
-      <c r="C38">
-        <v>1750</v>
-      </c>
-      <c r="D38">
-        <v>1700</v>
-      </c>
-      <c r="E38">
-        <v>1650</v>
-      </c>
-      <c r="F38">
-        <v>1600</v>
-      </c>
-      <c r="G38">
-        <v>1550</v>
-      </c>
-      <c r="H38">
-        <v>1500</v>
-      </c>
-      <c r="I38">
-        <v>1450</v>
-      </c>
-      <c r="J38">
-        <v>1400</v>
-      </c>
-      <c r="K38">
-        <v>1350</v>
-      </c>
-      <c r="L38">
-        <v>1300</v>
-      </c>
-      <c r="M38">
-        <v>1250</v>
-      </c>
-      <c r="N38">
-        <v>1200</v>
-      </c>
-      <c r="O38">
-        <v>1150</v>
-      </c>
-      <c r="P38">
-        <v>1100</v>
-      </c>
-      <c r="Q38">
-        <v>1050</v>
-      </c>
-      <c r="R38">
-        <v>1000</v>
-      </c>
-      <c r="S38">
-        <v>950</v>
-      </c>
-      <c r="T38">
-        <v>900</v>
-      </c>
-      <c r="U38">
-        <v>850</v>
-      </c>
-      <c r="V38">
-        <v>800</v>
-      </c>
-      <c r="W38">
-        <v>750</v>
-      </c>
-      <c r="X38">
-        <v>700</v>
-      </c>
-      <c r="Y38">
-        <v>650</v>
-      </c>
-      <c r="Z38">
-        <v>600</v>
-      </c>
-      <c r="AA38">
-        <v>550</v>
-      </c>
-      <c r="AB38">
-        <v>500</v>
-      </c>
-      <c r="AC38">
-        <v>450</v>
-      </c>
-      <c r="AD38">
-        <v>400</v>
-      </c>
-      <c r="AE38">
-        <v>350</v>
-      </c>
-      <c r="AF38">
-        <v>300</v>
-      </c>
-      <c r="AG38">
-        <v>250</v>
-      </c>
-      <c r="AH38">
-        <v>200</v>
-      </c>
-      <c r="AI38">
-        <v>150</v>
-      </c>
-      <c r="AJ38">
-        <v>100</v>
-      </c>
-      <c r="AK38">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
-        <v>44986</v>
-      </c>
-      <c r="B39" s="2">
-        <v>700</v>
-      </c>
-      <c r="C39">
-        <v>1800</v>
-      </c>
-      <c r="D39">
-        <v>1750</v>
-      </c>
-      <c r="E39">
-        <v>1700</v>
-      </c>
-      <c r="F39">
-        <v>1650</v>
-      </c>
-      <c r="G39">
-        <v>1600</v>
-      </c>
-      <c r="H39">
-        <v>1550</v>
-      </c>
-      <c r="I39">
-        <v>1500</v>
-      </c>
-      <c r="J39">
-        <v>1450</v>
-      </c>
-      <c r="K39">
-        <v>1400</v>
-      </c>
-      <c r="L39">
-        <v>1350</v>
-      </c>
-      <c r="M39">
-        <v>1300</v>
-      </c>
-      <c r="N39">
-        <v>1250</v>
-      </c>
-      <c r="O39">
-        <v>1200</v>
-      </c>
-      <c r="P39">
-        <v>1150</v>
-      </c>
-      <c r="Q39">
-        <v>1100</v>
-      </c>
-      <c r="R39">
-        <v>1050</v>
-      </c>
-      <c r="S39">
-        <v>1000</v>
-      </c>
-      <c r="T39">
-        <v>950</v>
-      </c>
-      <c r="U39">
-        <v>900</v>
-      </c>
-      <c r="V39">
-        <v>850</v>
-      </c>
-      <c r="W39">
-        <v>800</v>
-      </c>
-      <c r="X39">
-        <v>750</v>
-      </c>
-      <c r="Y39">
-        <v>700</v>
-      </c>
-      <c r="Z39">
-        <v>650</v>
-      </c>
-      <c r="AA39">
-        <v>600</v>
-      </c>
-      <c r="AB39">
-        <v>550</v>
-      </c>
-      <c r="AC39">
-        <v>500</v>
-      </c>
-      <c r="AD39">
-        <v>450</v>
-      </c>
-      <c r="AE39">
-        <v>400</v>
-      </c>
-      <c r="AF39">
-        <v>350</v>
-      </c>
-      <c r="AG39">
-        <v>300</v>
-      </c>
-      <c r="AH39">
-        <v>250</v>
-      </c>
-      <c r="AI39">
-        <v>200</v>
-      </c>
-      <c r="AJ39">
-        <v>150</v>
-      </c>
-      <c r="AK39">
-        <v>100</v>
-      </c>
-      <c r="AL39">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
-        <v>45017</v>
-      </c>
-      <c r="B40" s="2">
-        <v>700</v>
-      </c>
-      <c r="C40">
-        <v>1850</v>
-      </c>
-      <c r="D40">
-        <v>1800</v>
-      </c>
-      <c r="E40">
-        <v>1750</v>
-      </c>
-      <c r="F40">
-        <v>1700</v>
-      </c>
-      <c r="G40">
-        <v>1650</v>
-      </c>
-      <c r="H40">
-        <v>1600</v>
-      </c>
-      <c r="I40">
-        <v>1550</v>
-      </c>
-      <c r="J40">
-        <v>1500</v>
-      </c>
-      <c r="K40">
-        <v>1450</v>
-      </c>
-      <c r="L40">
-        <v>1400</v>
-      </c>
-      <c r="M40">
-        <v>1350</v>
-      </c>
-      <c r="N40">
-        <v>1300</v>
-      </c>
-      <c r="O40">
-        <v>1250</v>
-      </c>
-      <c r="P40">
-        <v>1200</v>
-      </c>
-      <c r="Q40">
-        <v>1150</v>
-      </c>
-      <c r="R40">
-        <v>1100</v>
-      </c>
-      <c r="S40">
-        <v>1050</v>
-      </c>
-      <c r="T40">
-        <v>1000</v>
-      </c>
-      <c r="U40">
-        <v>950</v>
-      </c>
-      <c r="V40">
-        <v>900</v>
-      </c>
-      <c r="W40">
-        <v>850</v>
-      </c>
-      <c r="X40">
-        <v>800</v>
-      </c>
-      <c r="Y40">
-        <v>750</v>
-      </c>
-      <c r="Z40">
-        <v>700</v>
-      </c>
-      <c r="AA40">
-        <v>650</v>
-      </c>
-      <c r="AB40">
-        <v>600</v>
-      </c>
-      <c r="AC40">
-        <v>550</v>
-      </c>
-      <c r="AD40">
-        <v>500</v>
-      </c>
-      <c r="AE40">
-        <v>450</v>
-      </c>
-      <c r="AF40">
-        <v>400</v>
-      </c>
-      <c r="AG40">
-        <v>350</v>
-      </c>
-      <c r="AH40">
-        <v>300</v>
-      </c>
-      <c r="AI40">
-        <v>250</v>
-      </c>
-      <c r="AJ40">
-        <v>200</v>
-      </c>
-      <c r="AK40">
-        <v>150</v>
-      </c>
-      <c r="AL40">
-        <v>100</v>
-      </c>
-      <c r="AM40">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
-        <v>45047</v>
-      </c>
-      <c r="B41" s="2">
-        <v>700</v>
-      </c>
-      <c r="C41">
-        <v>1900</v>
-      </c>
-      <c r="D41">
-        <v>1850</v>
-      </c>
-      <c r="E41">
-        <v>1800</v>
-      </c>
-      <c r="F41">
-        <v>1750</v>
-      </c>
-      <c r="G41">
-        <v>1700</v>
-      </c>
-      <c r="H41">
-        <v>1650</v>
-      </c>
-      <c r="I41">
-        <v>1600</v>
-      </c>
-      <c r="J41">
-        <v>1550</v>
-      </c>
-      <c r="K41">
-        <v>1500</v>
-      </c>
-      <c r="L41">
-        <v>1450</v>
-      </c>
-      <c r="M41">
-        <v>1400</v>
-      </c>
-      <c r="N41">
-        <v>1350</v>
-      </c>
-      <c r="O41">
-        <v>1300</v>
-      </c>
-      <c r="P41">
-        <v>1250</v>
-      </c>
-      <c r="Q41">
-        <v>1200</v>
-      </c>
-      <c r="R41">
-        <v>1150</v>
-      </c>
-      <c r="S41">
-        <v>1100</v>
-      </c>
-      <c r="T41">
-        <v>1050</v>
-      </c>
-      <c r="U41">
-        <v>1000</v>
-      </c>
-      <c r="V41">
-        <v>950</v>
-      </c>
-      <c r="W41">
-        <v>900</v>
-      </c>
-      <c r="X41">
-        <v>850</v>
-      </c>
-      <c r="Y41">
-        <v>800</v>
-      </c>
-      <c r="Z41">
-        <v>750</v>
-      </c>
-      <c r="AA41">
-        <v>700</v>
-      </c>
-      <c r="AB41">
-        <v>650</v>
-      </c>
-      <c r="AC41">
-        <v>600</v>
-      </c>
-      <c r="AD41">
-        <v>550</v>
-      </c>
-      <c r="AE41">
-        <v>500</v>
-      </c>
-      <c r="AF41">
-        <v>450</v>
-      </c>
-      <c r="AG41">
-        <v>400</v>
-      </c>
-      <c r="AH41">
-        <v>350</v>
-      </c>
-      <c r="AI41">
-        <v>300</v>
-      </c>
-      <c r="AJ41">
-        <v>250</v>
-      </c>
-      <c r="AK41">
-        <v>200</v>
-      </c>
-      <c r="AL41">
-        <v>150</v>
-      </c>
-      <c r="AM41">
-        <v>100</v>
-      </c>
-      <c r="AN41">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
-        <v>45078</v>
-      </c>
-      <c r="B42" s="2">
-        <v>700</v>
-      </c>
-      <c r="C42">
-        <v>1950</v>
-      </c>
-      <c r="D42">
-        <v>1900</v>
-      </c>
-      <c r="E42">
-        <v>1850</v>
-      </c>
-      <c r="F42">
-        <v>1800</v>
-      </c>
-      <c r="G42">
-        <v>1750</v>
-      </c>
-      <c r="H42">
-        <v>1700</v>
-      </c>
-      <c r="I42">
-        <v>1650</v>
-      </c>
-      <c r="J42">
-        <v>1600</v>
-      </c>
-      <c r="K42">
-        <v>1550</v>
-      </c>
-      <c r="L42">
-        <v>1500</v>
-      </c>
-      <c r="M42">
-        <v>1450</v>
-      </c>
-      <c r="N42">
-        <v>1400</v>
-      </c>
-      <c r="O42">
-        <v>1350</v>
-      </c>
-      <c r="P42">
-        <v>1300</v>
-      </c>
-      <c r="Q42">
-        <v>1250</v>
-      </c>
-      <c r="R42">
-        <v>1200</v>
-      </c>
-      <c r="S42">
-        <v>1150</v>
-      </c>
-      <c r="T42">
-        <v>1100</v>
-      </c>
-      <c r="U42">
-        <v>1050</v>
-      </c>
-      <c r="V42">
-        <v>1000</v>
-      </c>
-      <c r="W42">
-        <v>950</v>
-      </c>
-      <c r="X42">
-        <v>900</v>
-      </c>
-      <c r="Y42">
-        <v>850</v>
-      </c>
-      <c r="Z42">
-        <v>800</v>
-      </c>
-      <c r="AA42">
-        <v>750</v>
-      </c>
-      <c r="AB42">
-        <v>700</v>
-      </c>
-      <c r="AC42">
-        <v>650</v>
-      </c>
-      <c r="AD42">
-        <v>600</v>
-      </c>
-      <c r="AE42">
-        <v>550</v>
-      </c>
-      <c r="AF42">
-        <v>500</v>
-      </c>
-      <c r="AG42">
-        <v>450</v>
-      </c>
-      <c r="AH42">
-        <v>400</v>
-      </c>
-      <c r="AI42">
-        <v>350</v>
-      </c>
-      <c r="AJ42">
-        <v>300</v>
-      </c>
-      <c r="AK42">
-        <v>250</v>
-      </c>
-      <c r="AL42">
-        <v>200</v>
-      </c>
-      <c r="AM42">
-        <v>150</v>
-      </c>
-      <c r="AN42">
-        <v>100</v>
-      </c>
-      <c r="AO42">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
-        <v>45108</v>
-      </c>
-      <c r="B43" s="2">
-        <v>700</v>
-      </c>
-      <c r="C43">
-        <v>2000</v>
-      </c>
-      <c r="D43">
-        <v>1950</v>
-      </c>
-      <c r="E43">
-        <v>1900</v>
-      </c>
-      <c r="F43">
-        <v>1850</v>
-      </c>
-      <c r="G43">
-        <v>1800</v>
-      </c>
-      <c r="H43">
-        <v>1750</v>
-      </c>
-      <c r="I43">
-        <v>1700</v>
-      </c>
-      <c r="J43">
-        <v>1650</v>
-      </c>
-      <c r="K43">
-        <v>1600</v>
-      </c>
-      <c r="L43">
-        <v>1550</v>
-      </c>
-      <c r="M43">
-        <v>1500</v>
-      </c>
-      <c r="N43">
-        <v>1450</v>
-      </c>
-      <c r="O43">
-        <v>1400</v>
-      </c>
-      <c r="P43">
-        <v>1350</v>
-      </c>
-      <c r="Q43">
-        <v>1300</v>
-      </c>
-      <c r="R43">
-        <v>1250</v>
-      </c>
-      <c r="S43">
-        <v>1200</v>
-      </c>
-      <c r="T43">
-        <v>1150</v>
-      </c>
-      <c r="U43">
-        <v>1100</v>
-      </c>
-      <c r="V43">
-        <v>1050</v>
-      </c>
-      <c r="W43">
-        <v>1000</v>
-      </c>
-      <c r="X43">
-        <v>950</v>
-      </c>
-      <c r="Y43">
-        <v>900</v>
-      </c>
-      <c r="Z43">
-        <v>850</v>
-      </c>
-      <c r="AA43">
-        <v>800</v>
-      </c>
-      <c r="AB43">
-        <v>750</v>
-      </c>
-      <c r="AC43">
-        <v>700</v>
-      </c>
-      <c r="AD43">
-        <v>650</v>
-      </c>
-      <c r="AE43">
-        <v>600</v>
-      </c>
-      <c r="AF43">
-        <v>550</v>
-      </c>
-      <c r="AG43">
-        <v>500</v>
-      </c>
-      <c r="AH43">
-        <v>450</v>
-      </c>
-      <c r="AI43">
-        <v>400</v>
-      </c>
-      <c r="AJ43">
-        <v>350</v>
-      </c>
-      <c r="AK43">
-        <v>300</v>
-      </c>
-      <c r="AL43">
-        <v>250</v>
-      </c>
-      <c r="AM43">
-        <v>200</v>
-      </c>
-      <c r="AN43">
-        <v>150</v>
-      </c>
-      <c r="AO43">
-        <v>100</v>
-      </c>
-      <c r="AP43">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
-        <v>45139</v>
-      </c>
-      <c r="B44" s="2">
-        <v>700</v>
-      </c>
-      <c r="C44">
-        <v>2050</v>
-      </c>
-      <c r="D44">
-        <v>2000</v>
-      </c>
-      <c r="E44">
-        <v>1950</v>
-      </c>
-      <c r="F44">
-        <v>1900</v>
-      </c>
-      <c r="G44">
-        <v>1850</v>
-      </c>
-      <c r="H44">
-        <v>1800</v>
-      </c>
-      <c r="I44">
-        <v>1750</v>
-      </c>
-      <c r="J44">
-        <v>1700</v>
-      </c>
-      <c r="K44">
-        <v>1650</v>
-      </c>
-      <c r="L44">
-        <v>1600</v>
-      </c>
-      <c r="M44">
-        <v>1550</v>
-      </c>
-      <c r="N44">
-        <v>1500</v>
-      </c>
-      <c r="O44">
-        <v>1450</v>
-      </c>
-      <c r="P44">
-        <v>1400</v>
-      </c>
-      <c r="Q44">
-        <v>1350</v>
-      </c>
-      <c r="R44">
-        <v>1300</v>
-      </c>
-      <c r="S44">
-        <v>1250</v>
-      </c>
-      <c r="T44">
-        <v>1200</v>
-      </c>
-      <c r="U44">
-        <v>1150</v>
-      </c>
-      <c r="V44">
-        <v>1100</v>
-      </c>
-      <c r="W44">
-        <v>1050</v>
-      </c>
-      <c r="X44">
-        <v>1000</v>
-      </c>
-      <c r="Y44">
-        <v>950</v>
-      </c>
-      <c r="Z44">
-        <v>900</v>
-      </c>
-      <c r="AA44">
-        <v>850</v>
-      </c>
-      <c r="AB44">
-        <v>800</v>
-      </c>
-      <c r="AC44">
-        <v>750</v>
-      </c>
-      <c r="AD44">
-        <v>700</v>
-      </c>
-      <c r="AE44">
-        <v>650</v>
-      </c>
-      <c r="AF44">
-        <v>600</v>
-      </c>
-      <c r="AG44">
-        <v>550</v>
-      </c>
-      <c r="AH44">
-        <v>500</v>
-      </c>
-      <c r="AI44">
-        <v>450</v>
-      </c>
-      <c r="AJ44">
-        <v>400</v>
-      </c>
-      <c r="AK44">
-        <v>350</v>
-      </c>
-      <c r="AL44">
-        <v>300</v>
-      </c>
-      <c r="AM44">
-        <v>250</v>
-      </c>
-      <c r="AN44">
-        <v>200</v>
-      </c>
-      <c r="AO44">
-        <v>150</v>
-      </c>
-      <c r="AP44">
-        <v>100</v>
-      </c>
-      <c r="AQ44">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
-        <v>45170</v>
-      </c>
-      <c r="B45" s="2">
-        <v>700</v>
-      </c>
-      <c r="C45">
-        <v>2100</v>
-      </c>
-      <c r="D45">
-        <v>2050</v>
-      </c>
-      <c r="E45">
-        <v>2000</v>
-      </c>
-      <c r="F45">
-        <v>1950</v>
-      </c>
-      <c r="G45">
-        <v>1900</v>
-      </c>
-      <c r="H45">
-        <v>1850</v>
-      </c>
-      <c r="I45">
-        <v>1800</v>
-      </c>
-      <c r="J45">
-        <v>1750</v>
-      </c>
-      <c r="K45">
-        <v>1700</v>
-      </c>
-      <c r="L45">
-        <v>1650</v>
-      </c>
-      <c r="M45">
-        <v>1600</v>
-      </c>
-      <c r="N45">
-        <v>1550</v>
-      </c>
-      <c r="O45">
-        <v>1500</v>
-      </c>
-      <c r="P45">
-        <v>1450</v>
-      </c>
-      <c r="Q45">
-        <v>1400</v>
-      </c>
-      <c r="R45">
-        <v>1350</v>
-      </c>
-      <c r="S45">
-        <v>1300</v>
-      </c>
-      <c r="T45">
-        <v>1250</v>
-      </c>
-      <c r="U45">
-        <v>1200</v>
-      </c>
-      <c r="V45">
-        <v>1150</v>
-      </c>
-      <c r="W45">
-        <v>1100</v>
-      </c>
-      <c r="X45">
-        <v>1050</v>
-      </c>
-      <c r="Y45">
-        <v>1000</v>
-      </c>
-      <c r="Z45">
-        <v>950</v>
-      </c>
-      <c r="AA45">
-        <v>900</v>
-      </c>
-      <c r="AB45">
-        <v>850</v>
-      </c>
-      <c r="AC45">
-        <v>800</v>
-      </c>
-      <c r="AD45">
-        <v>750</v>
-      </c>
-      <c r="AE45">
-        <v>700</v>
-      </c>
-      <c r="AF45">
-        <v>650</v>
-      </c>
-      <c r="AG45">
-        <v>600</v>
-      </c>
-      <c r="AH45">
-        <v>550</v>
-      </c>
-      <c r="AI45">
-        <v>500</v>
-      </c>
-      <c r="AJ45">
-        <v>450</v>
-      </c>
-      <c r="AK45">
-        <v>400</v>
-      </c>
-      <c r="AL45">
-        <v>350</v>
-      </c>
-      <c r="AM45">
-        <v>300</v>
-      </c>
-      <c r="AN45">
-        <v>250</v>
-      </c>
-      <c r="AO45">
-        <v>200</v>
-      </c>
-      <c r="AP45">
-        <v>150</v>
-      </c>
-      <c r="AQ45">
-        <v>100</v>
-      </c>
-      <c r="AR45">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
-        <v>45200</v>
-      </c>
-      <c r="B46" s="2">
-        <v>700</v>
-      </c>
-      <c r="C46">
-        <v>2150</v>
-      </c>
-      <c r="D46">
-        <v>2100</v>
-      </c>
-      <c r="E46">
-        <v>2050</v>
-      </c>
-      <c r="F46">
-        <v>2000</v>
-      </c>
-      <c r="G46">
-        <v>1950</v>
-      </c>
-      <c r="H46">
-        <v>1900</v>
-      </c>
-      <c r="I46">
-        <v>1850</v>
-      </c>
-      <c r="J46">
-        <v>1800</v>
-      </c>
-      <c r="K46">
-        <v>1750</v>
-      </c>
-      <c r="L46">
-        <v>1700</v>
-      </c>
-      <c r="M46">
-        <v>1650</v>
-      </c>
-      <c r="N46">
-        <v>1600</v>
-      </c>
-      <c r="O46">
-        <v>1550</v>
-      </c>
-      <c r="P46">
-        <v>1500</v>
-      </c>
-      <c r="Q46">
-        <v>1450</v>
-      </c>
-      <c r="R46">
-        <v>1400</v>
-      </c>
-      <c r="S46">
-        <v>1350</v>
-      </c>
-      <c r="T46">
-        <v>1300</v>
-      </c>
-      <c r="U46">
-        <v>1250</v>
-      </c>
-      <c r="V46">
-        <v>1200</v>
-      </c>
-      <c r="W46">
-        <v>1150</v>
-      </c>
-      <c r="X46">
-        <v>1100</v>
-      </c>
-      <c r="Y46">
-        <v>1050</v>
-      </c>
-      <c r="Z46">
-        <v>1000</v>
-      </c>
-      <c r="AA46">
-        <v>950</v>
-      </c>
-      <c r="AB46">
-        <v>900</v>
-      </c>
-      <c r="AC46">
-        <v>850</v>
-      </c>
-      <c r="AD46">
-        <v>800</v>
-      </c>
-      <c r="AE46">
-        <v>750</v>
-      </c>
-      <c r="AF46">
-        <v>700</v>
-      </c>
-      <c r="AG46">
-        <v>650</v>
-      </c>
-      <c r="AH46">
-        <v>600</v>
-      </c>
-      <c r="AI46">
-        <v>550</v>
-      </c>
-      <c r="AJ46">
-        <v>500</v>
-      </c>
-      <c r="AK46">
-        <v>450</v>
-      </c>
-      <c r="AL46">
-        <v>400</v>
-      </c>
-      <c r="AM46">
-        <v>350</v>
-      </c>
-      <c r="AN46">
-        <v>300</v>
-      </c>
-      <c r="AO46">
-        <v>250</v>
-      </c>
-      <c r="AP46">
-        <v>200</v>
-      </c>
-      <c r="AQ46">
-        <v>150</v>
-      </c>
-      <c r="AR46">
-        <v>100</v>
-      </c>
-      <c r="AS46">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
-        <v>45231</v>
-      </c>
-      <c r="B47" s="2">
-        <v>700</v>
-      </c>
-      <c r="C47">
-        <v>2200</v>
-      </c>
-      <c r="D47">
-        <v>2150</v>
-      </c>
-      <c r="E47">
-        <v>2100</v>
-      </c>
-      <c r="F47">
-        <v>2050</v>
-      </c>
-      <c r="G47">
-        <v>2000</v>
-      </c>
-      <c r="H47">
-        <v>1950</v>
-      </c>
-      <c r="I47">
-        <v>1900</v>
-      </c>
-      <c r="J47">
-        <v>1850</v>
-      </c>
-      <c r="K47">
-        <v>1800</v>
-      </c>
-      <c r="L47">
-        <v>1750</v>
-      </c>
-      <c r="M47">
-        <v>1700</v>
-      </c>
-      <c r="N47">
-        <v>1650</v>
-      </c>
-      <c r="O47">
-        <v>1600</v>
-      </c>
-      <c r="P47">
-        <v>1550</v>
-      </c>
-      <c r="Q47">
-        <v>1500</v>
-      </c>
-      <c r="R47">
-        <v>1450</v>
-      </c>
-      <c r="S47">
-        <v>1400</v>
-      </c>
-      <c r="T47">
-        <v>1350</v>
-      </c>
-      <c r="U47">
-        <v>1300</v>
-      </c>
-      <c r="V47">
-        <v>1250</v>
-      </c>
-      <c r="W47">
-        <v>1200</v>
-      </c>
-      <c r="X47">
-        <v>1150</v>
-      </c>
-      <c r="Y47">
-        <v>1100</v>
-      </c>
-      <c r="Z47">
-        <v>1050</v>
-      </c>
-      <c r="AA47">
-        <v>1000</v>
-      </c>
-      <c r="AB47">
-        <v>950</v>
-      </c>
-      <c r="AC47">
-        <v>900</v>
-      </c>
-      <c r="AD47">
-        <v>850</v>
-      </c>
-      <c r="AE47">
-        <v>800</v>
-      </c>
-      <c r="AF47">
-        <v>750</v>
-      </c>
-      <c r="AG47">
-        <v>700</v>
-      </c>
-      <c r="AH47">
-        <v>650</v>
-      </c>
-      <c r="AI47">
-        <v>600</v>
-      </c>
-      <c r="AJ47">
-        <v>550</v>
-      </c>
-      <c r="AK47">
-        <v>500</v>
-      </c>
-      <c r="AL47">
-        <v>450</v>
-      </c>
-      <c r="AM47">
-        <v>400</v>
-      </c>
-      <c r="AN47">
-        <v>350</v>
-      </c>
-      <c r="AO47">
-        <v>300</v>
-      </c>
-      <c r="AP47">
-        <v>250</v>
-      </c>
-      <c r="AQ47">
-        <v>200</v>
-      </c>
-      <c r="AR47">
-        <v>150</v>
-      </c>
-      <c r="AS47">
-        <v>100</v>
-      </c>
-      <c r="AT47">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
-        <v>45261</v>
-      </c>
-      <c r="B48" s="2">
-        <v>700</v>
-      </c>
-      <c r="C48">
-        <v>2250</v>
-      </c>
-      <c r="D48">
-        <v>2200</v>
-      </c>
-      <c r="E48">
-        <v>2150</v>
-      </c>
-      <c r="F48">
-        <v>2100</v>
-      </c>
-      <c r="G48">
-        <v>2050</v>
-      </c>
-      <c r="H48">
-        <v>2000</v>
-      </c>
-      <c r="I48">
-        <v>1950</v>
-      </c>
-      <c r="J48">
-        <v>1900</v>
-      </c>
-      <c r="K48">
-        <v>1850</v>
-      </c>
-      <c r="L48">
-        <v>1800</v>
-      </c>
-      <c r="M48">
-        <v>1750</v>
-      </c>
-      <c r="N48">
-        <v>1700</v>
-      </c>
-      <c r="O48">
-        <v>1650</v>
-      </c>
-      <c r="P48">
-        <v>1600</v>
-      </c>
-      <c r="Q48">
-        <v>1550</v>
-      </c>
-      <c r="R48">
-        <v>1500</v>
-      </c>
-      <c r="S48">
-        <v>1450</v>
-      </c>
-      <c r="T48">
-        <v>1400</v>
-      </c>
-      <c r="U48">
-        <v>1350</v>
-      </c>
-      <c r="V48">
-        <v>1300</v>
-      </c>
-      <c r="W48">
-        <v>1250</v>
-      </c>
-      <c r="X48">
-        <v>1200</v>
-      </c>
-      <c r="Y48">
-        <v>1150</v>
-      </c>
-      <c r="Z48">
-        <v>1100</v>
-      </c>
-      <c r="AA48">
-        <v>1050</v>
-      </c>
-      <c r="AB48">
-        <v>1000</v>
-      </c>
-      <c r="AC48">
-        <v>950</v>
-      </c>
-      <c r="AD48">
-        <v>900</v>
-      </c>
-      <c r="AE48">
-        <v>850</v>
-      </c>
-      <c r="AF48">
-        <v>800</v>
-      </c>
-      <c r="AG48">
-        <v>750</v>
-      </c>
-      <c r="AH48">
-        <v>700</v>
-      </c>
-      <c r="AI48">
-        <v>650</v>
-      </c>
-      <c r="AJ48">
-        <v>600</v>
-      </c>
-      <c r="AK48">
-        <v>550</v>
-      </c>
-      <c r="AL48">
-        <v>500</v>
-      </c>
-      <c r="AM48">
-        <v>450</v>
-      </c>
-      <c r="AN48">
-        <v>400</v>
-      </c>
-      <c r="AO48">
-        <v>350</v>
-      </c>
-      <c r="AP48">
-        <v>300</v>
-      </c>
-      <c r="AQ48">
-        <v>250</v>
-      </c>
-      <c r="AR48">
-        <v>200</v>
-      </c>
-      <c r="AS48">
-        <v>150</v>
-      </c>
-      <c r="AT48">
-        <v>100</v>
-      </c>
-      <c r="AU48">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="4"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="4"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="4"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="4"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="4"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="4"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="4"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="4"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="4"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="4"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="4"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="4"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="4"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="4"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="4"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="4"/>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="4"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="4"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="4"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="4"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="4"/>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="4"/>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="4"/>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="4"/>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="4"/>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="4"/>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="4"/>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="4"/>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="4"/>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="4"/>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="4"/>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="4"/>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="4"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="4"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="4"/>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="4"/>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="4"/>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="4"/>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="4"/>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="4"/>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="4"/>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/files/penalty.xlsx
+++ b/files/penalty.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" tabRatio="846"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" tabRatio="846" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Total" sheetId="16" r:id="rId1"/>
@@ -479,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" s="7">
         <f>'HC-5, Flat No. 001'!E2</f>
-        <v>83250</v>
+        <v>80850</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -609,7 +609,7 @@
       </c>
       <c r="C11" s="7">
         <f>'HC-5, Flat No. 003'!E2</f>
-        <v>83250</v>
+        <v>80850</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -654,7 +654,7 @@
       </c>
       <c r="C16" s="9">
         <f>SUM(C3:C15)</f>
-        <v>615900</v>
+        <v>611100</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -699,9 +699,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="topRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,7 +725,7 @@
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C2" s="1">
         <f>SUM(B4:B48)</f>
-        <v>31500</v>
+        <v>29100</v>
       </c>
       <c r="D2" s="1">
         <f>SUM(C48:AU48)</f>
@@ -733,7 +733,7 @@
       </c>
       <c r="E2" s="1">
         <f>C2+D2</f>
-        <v>83250</v>
+        <v>80850</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -757,7 +757,7 @@
         <v>43922</v>
       </c>
       <c r="B4" s="2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="C4">
         <v>50</v>
@@ -768,7 +768,7 @@
         <v>43952</v>
       </c>
       <c r="B5" s="2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="C5">
         <v>100</v>
@@ -782,7 +782,7 @@
         <v>43983</v>
       </c>
       <c r="B6" s="2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="C6">
         <v>150</v>
@@ -799,7 +799,7 @@
         <v>44013</v>
       </c>
       <c r="B7" s="2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="C7">
         <v>200</v>
@@ -819,7 +819,7 @@
         <v>44044</v>
       </c>
       <c r="B8" s="2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="C8">
         <v>250</v>
@@ -842,7 +842,7 @@
         <v>44075</v>
       </c>
       <c r="B9" s="2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="C9">
         <v>300</v>
@@ -868,7 +868,7 @@
         <v>44105</v>
       </c>
       <c r="B10" s="2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="C10">
         <v>350</v>
@@ -897,7 +897,7 @@
         <v>44136</v>
       </c>
       <c r="B11" s="2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="C11">
         <v>400</v>
@@ -929,7 +929,7 @@
         <v>44166</v>
       </c>
       <c r="B12" s="2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="C12">
         <v>450</v>
@@ -964,7 +964,7 @@
         <v>44197</v>
       </c>
       <c r="B13" s="2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="C13">
         <v>500</v>
@@ -1002,7 +1002,7 @@
         <v>44228</v>
       </c>
       <c r="B14" s="2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="C14">
         <v>550</v>
@@ -1043,7 +1043,7 @@
         <v>44256</v>
       </c>
       <c r="B15" s="2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="C15">
         <v>600</v>
@@ -1087,7 +1087,7 @@
         <v>44287</v>
       </c>
       <c r="B16" s="2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="C16">
         <v>650</v>
@@ -1134,7 +1134,7 @@
         <v>44317</v>
       </c>
       <c r="B17" s="2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="C17">
         <v>700</v>
@@ -1184,7 +1184,7 @@
         <v>44348</v>
       </c>
       <c r="B18" s="2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="C18">
         <v>750</v>
@@ -1237,7 +1237,7 @@
         <v>44378</v>
       </c>
       <c r="B19" s="2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="C19">
         <v>800</v>
@@ -1293,7 +1293,7 @@
         <v>44409</v>
       </c>
       <c r="B20" s="2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="C20">
         <v>850</v>
@@ -1352,7 +1352,7 @@
         <v>44440</v>
       </c>
       <c r="B21" s="2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="C21">
         <v>900</v>
@@ -1414,7 +1414,7 @@
         <v>44470</v>
       </c>
       <c r="B22" s="2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="C22">
         <v>950</v>
@@ -1479,7 +1479,7 @@
         <v>44501</v>
       </c>
       <c r="B23" s="2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="C23">
         <v>1000</v>
@@ -1547,7 +1547,7 @@
         <v>44531</v>
       </c>
       <c r="B24" s="2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="C24">
         <v>1050</v>
@@ -1618,7 +1618,7 @@
         <v>44562</v>
       </c>
       <c r="B25" s="2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="C25">
         <v>1100</v>
@@ -1692,7 +1692,7 @@
         <v>44593</v>
       </c>
       <c r="B26" s="2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="C26">
         <v>1150</v>
@@ -1769,7 +1769,7 @@
         <v>44621</v>
       </c>
       <c r="B27" s="2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="C27">
         <v>1200</v>
@@ -17676,7 +17676,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="topRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17700,11 +17700,11 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C2" s="1">
         <f>SUM(B4:B12)</f>
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="D2" s="1">
-        <f>SUM(C7:J7)</f>
-        <v>500</v>
+        <f>SUM(C6:J7)</f>
+        <v>300</v>
       </c>
       <c r="E2" s="1">
         <f>C2+D2</f>
@@ -17732,7 +17732,7 @@
         <v>45170</v>
       </c>
       <c r="B4" s="2">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="C4">
         <v>50</v>
@@ -17743,7 +17743,7 @@
         <v>45200</v>
       </c>
       <c r="B5" s="2">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="C5">
         <v>100</v>
@@ -17757,7 +17757,7 @@
         <v>45231</v>
       </c>
       <c r="B6" s="2">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="C6">
         <v>150</v>
@@ -17774,19 +17774,16 @@
         <v>45261</v>
       </c>
       <c r="B7" s="2">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="C7">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>100</v>
-      </c>
-      <c r="F7">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -18957,7 +18954,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="topRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24488,7 +24485,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="topRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24512,7 +24509,7 @@
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C2" s="1">
         <f>SUM(B4:B48)</f>
-        <v>31500</v>
+        <v>29100</v>
       </c>
       <c r="D2" s="1">
         <f>SUM(C48:AU48)</f>
@@ -24520,7 +24517,7 @@
       </c>
       <c r="E2" s="1">
         <f>C2+D2</f>
-        <v>83250</v>
+        <v>80850</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -24544,7 +24541,7 @@
         <v>43922</v>
       </c>
       <c r="B4" s="2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="C4">
         <v>50</v>
@@ -24555,7 +24552,7 @@
         <v>43952</v>
       </c>
       <c r="B5" s="2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="C5">
         <v>100</v>
@@ -24569,7 +24566,7 @@
         <v>43983</v>
       </c>
       <c r="B6" s="2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="C6">
         <v>150</v>
@@ -24586,7 +24583,7 @@
         <v>44013</v>
       </c>
       <c r="B7" s="2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="C7">
         <v>200</v>
@@ -24606,7 +24603,7 @@
         <v>44044</v>
       </c>
       <c r="B8" s="2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="C8">
         <v>250</v>
@@ -24629,7 +24626,7 @@
         <v>44075</v>
       </c>
       <c r="B9" s="2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="C9">
         <v>300</v>
@@ -24655,7 +24652,7 @@
         <v>44105</v>
       </c>
       <c r="B10" s="2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="C10">
         <v>350</v>
@@ -24684,7 +24681,7 @@
         <v>44136</v>
       </c>
       <c r="B11" s="2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="C11">
         <v>400</v>
@@ -24716,7 +24713,7 @@
         <v>44166</v>
       </c>
       <c r="B12" s="2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="C12">
         <v>450</v>
@@ -24751,7 +24748,7 @@
         <v>44197</v>
       </c>
       <c r="B13" s="2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="C13">
         <v>500</v>
@@ -24789,7 +24786,7 @@
         <v>44228</v>
       </c>
       <c r="B14" s="2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="C14">
         <v>550</v>
@@ -24830,7 +24827,7 @@
         <v>44256</v>
       </c>
       <c r="B15" s="2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="C15">
         <v>600</v>
@@ -24874,7 +24871,7 @@
         <v>44287</v>
       </c>
       <c r="B16" s="2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="C16">
         <v>650</v>
@@ -24921,7 +24918,7 @@
         <v>44317</v>
       </c>
       <c r="B17" s="2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="C17">
         <v>700</v>
@@ -24971,7 +24968,7 @@
         <v>44348</v>
       </c>
       <c r="B18" s="2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="C18">
         <v>750</v>
@@ -25024,7 +25021,7 @@
         <v>44378</v>
       </c>
       <c r="B19" s="2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="C19">
         <v>800</v>
@@ -25080,7 +25077,7 @@
         <v>44409</v>
       </c>
       <c r="B20" s="2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="C20">
         <v>850</v>
@@ -25139,7 +25136,7 @@
         <v>44440</v>
       </c>
       <c r="B21" s="2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="C21">
         <v>900</v>
@@ -25201,7 +25198,7 @@
         <v>44470</v>
       </c>
       <c r="B22" s="2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="C22">
         <v>950</v>
@@ -25266,7 +25263,7 @@
         <v>44501</v>
       </c>
       <c r="B23" s="2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="C23">
         <v>1000</v>
@@ -25334,7 +25331,7 @@
         <v>44531</v>
       </c>
       <c r="B24" s="2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="C24">
         <v>1050</v>
@@ -25405,7 +25402,7 @@
         <v>44562</v>
       </c>
       <c r="B25" s="2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="C25">
         <v>1100</v>
@@ -25479,7 +25476,7 @@
         <v>44593</v>
       </c>
       <c r="B26" s="2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="C26">
         <v>1150</v>
@@ -25556,7 +25553,7 @@
         <v>44621</v>
       </c>
       <c r="B27" s="2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="C27">
         <v>1200</v>

--- a/files/penalty.xlsx
+++ b/files/penalty.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" tabRatio="846" firstSheet="6" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" tabRatio="846" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Total" sheetId="16" r:id="rId1"/>
@@ -480,7 +480,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B14"/>
+      <selection activeCell="B7" sqref="B7:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,7 +549,7 @@
       </c>
       <c r="C5" s="7">
         <f>'HB-3-3, Shop No. 04'!E2</f>
-        <v>82350</v>
+        <v>84450</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -654,7 +654,7 @@
       </c>
       <c r="C16" s="9">
         <f>SUM(C3:C15)</f>
-        <v>611100</v>
+        <v>613200</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -699,9 +699,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C7" sqref="C7"/>
+      <selection pane="topRight" activeCell="C47" sqref="C47:F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4217,52 +4217,92 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>45292</v>
+      </c>
+      <c r="B49" s="2">
+        <v>700</v>
+      </c>
+      <c r="C49">
+        <v>2300</v>
+      </c>
+      <c r="D49">
+        <v>2250</v>
+      </c>
+      <c r="E49">
+        <v>2200</v>
+      </c>
+      <c r="F49">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>45323</v>
+      </c>
+      <c r="B50" s="2">
+        <v>700</v>
+      </c>
+      <c r="C50">
+        <v>2350</v>
+      </c>
+      <c r="D50">
+        <v>2300</v>
+      </c>
+      <c r="E50">
+        <v>2250</v>
+      </c>
+      <c r="F50">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
@@ -18950,11 +18990,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU49"/>
+  <dimension ref="A1:AU52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E2" sqref="E2"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18977,8 +19017,8 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C2" s="1">
-        <f>SUM(B4:B49)</f>
-        <v>29700</v>
+        <f>SUM(B4:B52)</f>
+        <v>31800</v>
       </c>
       <c r="D2" s="1">
         <f>SUM(C49:AU49)</f>
@@ -18986,7 +19026,7 @@
       </c>
       <c r="E2" s="1">
         <f>C2+D2</f>
-        <v>82350</v>
+        <v>84450</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -22530,6 +22570,30 @@
       </c>
       <c r="AU49">
         <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>45292</v>
+      </c>
+      <c r="B50" s="2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="51" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>45323</v>
+      </c>
+      <c r="B51" s="2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="52" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>45352</v>
+      </c>
+      <c r="B52" s="2">
+        <v>700</v>
       </c>
     </row>
   </sheetData>
@@ -22645,7 +22709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
